--- a/apps/load_data/2023/01/PLMOVMAE.xlsx
+++ b/apps/load_data/2023/01/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2023\HHY0123U\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2023\HHY0123U\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A66D8FCD-ADBE-471E-8C75-3E72C83BE462}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEF984B-E847-4ABA-8C82-4AD76F7EA2D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CJ$306</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CJ$306</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13083" uniqueCount="3429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13062" uniqueCount="3426">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6919,9 +6920,6 @@
     <t>08771747</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -8101,9 +8099,6 @@
     <t>06567208</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -8405,9 +8400,6 @@
   </si>
   <si>
     <t>09842316</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -10315,7 +10307,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -11155,10 +11147,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CJ306"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD171" sqref="AC171:AD306"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -42911,12 +42905,7 @@
       <c r="AB171" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC171" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD171" s="1" t="s">
-        <v>2298</v>
-      </c>
+      <c r="AC171" s="3"/>
       <c r="AF171" s="1" t="s">
         <v>107</v>
       </c>
@@ -42969,16 +42958,16 @@
         <v>23</v>
       </c>
       <c r="BD171" s="1" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="BG171" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH171" s="1" t="s">
+        <v>2299</v>
+      </c>
+      <c r="BI171" s="1" t="s">
         <v>2300</v>
-      </c>
-      <c r="BI171" s="1" t="s">
-        <v>2301</v>
       </c>
       <c r="BN171" s="1" t="s">
         <v>117</v>
@@ -42993,13 +42982,13 @@
         <v>160</v>
       </c>
       <c r="BS171" s="1" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="BT171" s="3">
         <v>36225</v>
       </c>
       <c r="BU171" s="1" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="BV171" s="1" t="s">
         <v>121</v>
@@ -43020,19 +43009,19 @@
         <v>102</v>
       </c>
       <c r="CD171" s="1" t="s">
+        <v>2303</v>
+      </c>
+      <c r="CE171" s="1" t="s">
         <v>2304</v>
       </c>
-      <c r="CE171" s="1" t="s">
+      <c r="CF171" s="1" t="s">
         <v>2305</v>
       </c>
-      <c r="CF171" s="1" t="s">
+      <c r="CH171" s="1" t="s">
         <v>2306</v>
       </c>
-      <c r="CH171" s="1" t="s">
+      <c r="CI171" s="1" t="s">
         <v>2307</v>
-      </c>
-      <c r="CI171" s="1" t="s">
-        <v>2308</v>
       </c>
       <c r="CJ171" s="1" t="s">
         <v>129</v>
@@ -43070,13 +43059,13 @@
         <v>97</v>
       </c>
       <c r="K172" s="1" t="s">
+        <v>2308</v>
+      </c>
+      <c r="L172" s="1" t="s">
         <v>2309</v>
       </c>
-      <c r="L172" s="1" t="s">
+      <c r="N172" s="1" t="s">
         <v>2310</v>
-      </c>
-      <c r="N172" s="1" t="s">
-        <v>2311</v>
       </c>
       <c r="O172" s="1" t="s">
         <v>101</v>
@@ -43108,12 +43097,7 @@
       <c r="AB172" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="AC172" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD172" s="1" t="s">
-        <v>2298</v>
-      </c>
+      <c r="AC172" s="3"/>
       <c r="AF172" s="1" t="s">
         <v>107</v>
       </c>
@@ -43160,7 +43144,7 @@
         <v>102</v>
       </c>
       <c r="AZ172" s="1" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="BB172" s="1">
         <v>1</v>
@@ -43169,13 +43153,13 @@
         <v>23</v>
       </c>
       <c r="BD172" s="1" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="BG172" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH172" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="BI172" s="1" t="s">
         <v>1665</v>
@@ -43190,13 +43174,13 @@
         <v>103</v>
       </c>
       <c r="BS172" s="1" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="BT172" s="3">
         <v>36949</v>
       </c>
       <c r="BU172" s="1" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="BV172" s="1" t="s">
         <v>121</v>
@@ -43220,16 +43204,16 @@
         <v>102</v>
       </c>
       <c r="CD172" s="1" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="CE172" s="1" t="s">
         <v>2005</v>
       </c>
       <c r="CF172" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="CH172" s="1" t="s">
         <v>2318</v>
-      </c>
-      <c r="CH172" s="1" t="s">
-        <v>2319</v>
       </c>
       <c r="CI172" s="1" t="s">
         <v>1672</v>
@@ -43264,16 +43248,16 @@
         <v>95</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K173" s="1" t="s">
+        <v>2320</v>
+      </c>
+      <c r="L173" s="1" t="s">
         <v>2321</v>
-      </c>
-      <c r="L173" s="1" t="s">
-        <v>2322</v>
       </c>
       <c r="O173" s="1" t="s">
         <v>101</v>
@@ -43296,12 +43280,7 @@
       <c r="AB173" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="AC173" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD173" s="1" t="s">
-        <v>2298</v>
-      </c>
+      <c r="AC173" s="3"/>
       <c r="AF173" s="1" t="s">
         <v>107</v>
       </c>
@@ -43348,7 +43327,7 @@
         <v>102</v>
       </c>
       <c r="AZ173" s="1" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="BB173" s="1">
         <v>5</v>
@@ -43357,7 +43336,7 @@
         <v>22</v>
       </c>
       <c r="BD173" s="1" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="BN173" s="1" t="s">
         <v>117</v>
@@ -43384,7 +43363,7 @@
         <v>111</v>
       </c>
       <c r="CA173" s="1" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="CB173" s="1" t="s">
         <v>123</v>
@@ -43393,10 +43372,10 @@
         <v>102</v>
       </c>
       <c r="CD173" s="1" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="CH173" s="1" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="CI173" s="1" t="s">
         <v>129</v>
@@ -43437,13 +43416,13 @@
         <v>97</v>
       </c>
       <c r="K174" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="L174" s="1" t="s">
         <v>2327</v>
       </c>
-      <c r="L174" s="1" t="s">
+      <c r="N174" s="1" t="s">
         <v>2328</v>
-      </c>
-      <c r="N174" s="1" t="s">
-        <v>2329</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>101</v>
@@ -43472,12 +43451,7 @@
       <c r="AA174" s="1">
         <v>0</v>
       </c>
-      <c r="AC174" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD174" s="1" t="s">
-        <v>2298</v>
-      </c>
+      <c r="AC174" s="3"/>
       <c r="AF174" s="1" t="s">
         <v>107</v>
       </c>
@@ -43527,7 +43501,7 @@
         <v>102</v>
       </c>
       <c r="AZ174" s="1" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="BB174" s="1">
         <v>1</v>
@@ -43536,13 +43510,13 @@
         <v>23</v>
       </c>
       <c r="BD174" s="1" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="BG174" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH174" s="1" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="BI174" s="1" t="s">
         <v>935</v>
@@ -43554,7 +43528,7 @@
         <v>106</v>
       </c>
       <c r="BU174" s="1" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="BV174" s="1" t="s">
         <v>121</v>
@@ -43572,16 +43546,16 @@
         <v>102</v>
       </c>
       <c r="CD174" s="1" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="CE174" s="1" t="s">
         <v>1230</v>
       </c>
       <c r="CF174" s="1" t="s">
+        <v>2334</v>
+      </c>
+      <c r="CH174" s="1" t="s">
         <v>2335</v>
-      </c>
-      <c r="CH174" s="1" t="s">
-        <v>2336</v>
       </c>
       <c r="CI174" s="1" t="s">
         <v>941</v>
@@ -43622,13 +43596,13 @@
         <v>97</v>
       </c>
       <c r="K175" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="L175" s="1" t="s">
         <v>2337</v>
       </c>
-      <c r="L175" s="1" t="s">
+      <c r="N175" s="1" t="s">
         <v>2338</v>
-      </c>
-      <c r="N175" s="1" t="s">
-        <v>2339</v>
       </c>
       <c r="O175" s="1" t="s">
         <v>101</v>
@@ -43660,12 +43634,7 @@
       <c r="AB175" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC175" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD175" s="1" t="s">
-        <v>2298</v>
-      </c>
+      <c r="AC175" s="3"/>
       <c r="AF175" s="1" t="s">
         <v>107</v>
       </c>
@@ -43715,7 +43684,7 @@
         <v>102</v>
       </c>
       <c r="AZ175" s="1" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="BB175" s="1">
         <v>1</v>
@@ -43724,13 +43693,13 @@
         <v>23</v>
       </c>
       <c r="BD175" s="1" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="BG175" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH175" s="1" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="BI175" s="1" t="s">
         <v>838</v>
@@ -43742,7 +43711,7 @@
         <v>106</v>
       </c>
       <c r="BU175" s="1" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="BV175" s="1" t="s">
         <v>121</v>
@@ -43763,13 +43732,13 @@
         <v>677</v>
       </c>
       <c r="CE175" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="CF175" s="1" t="s">
         <v>2344</v>
       </c>
-      <c r="CF175" s="1" t="s">
+      <c r="CH175" s="1" t="s">
         <v>2345</v>
-      </c>
-      <c r="CH175" s="1" t="s">
-        <v>2346</v>
       </c>
       <c r="CI175" s="1" t="s">
         <v>843</v>
@@ -43810,13 +43779,13 @@
         <v>97</v>
       </c>
       <c r="K176" s="1" t="s">
+        <v>2346</v>
+      </c>
+      <c r="L176" s="1" t="s">
         <v>2347</v>
       </c>
-      <c r="L176" s="1" t="s">
+      <c r="N176" s="1" t="s">
         <v>2348</v>
-      </c>
-      <c r="N176" s="1" t="s">
-        <v>2349</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>101</v>
@@ -43845,12 +43814,7 @@
       <c r="AA176" s="1">
         <v>0</v>
       </c>
-      <c r="AC176" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD176" s="1" t="s">
-        <v>2298</v>
-      </c>
+      <c r="AC176" s="3"/>
       <c r="AF176" s="1" t="s">
         <v>107</v>
       </c>
@@ -43900,7 +43864,7 @@
         <v>102</v>
       </c>
       <c r="AZ176" s="1" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="BB176" s="1">
         <v>1</v>
@@ -43909,13 +43873,13 @@
         <v>23</v>
       </c>
       <c r="BD176" s="1" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="BG176" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH176" s="1" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="BI176" s="1" t="s">
         <v>1021</v>
@@ -43927,7 +43891,7 @@
         <v>106</v>
       </c>
       <c r="BU176" s="1" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="BV176" s="1" t="s">
         <v>121</v>
@@ -43945,16 +43909,16 @@
         <v>102</v>
       </c>
       <c r="CD176" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="CE176" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="CF176" s="1" t="s">
         <v>2354</v>
       </c>
-      <c r="CE176" s="1" t="s">
-        <v>2354</v>
-      </c>
-      <c r="CF176" s="1" t="s">
+      <c r="CH176" s="1" t="s">
         <v>2355</v>
-      </c>
-      <c r="CH176" s="1" t="s">
-        <v>2356</v>
       </c>
       <c r="CI176" s="1" t="s">
         <v>1027</v>
@@ -43995,13 +43959,13 @@
         <v>97</v>
       </c>
       <c r="K177" s="1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="L177" s="1" t="s">
         <v>2357</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="N177" s="1" t="s">
         <v>2358</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>2359</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>101</v>
@@ -44039,12 +44003,7 @@
       <c r="AB177" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC177" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD177" s="1" t="s">
-        <v>2298</v>
-      </c>
+      <c r="AC177" s="3"/>
       <c r="AF177" s="1" t="s">
         <v>107</v>
       </c>
@@ -44091,7 +44050,7 @@
         <v>102</v>
       </c>
       <c r="AZ177" s="1" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="BB177" s="1">
         <v>1</v>
@@ -44100,16 +44059,16 @@
         <v>23</v>
       </c>
       <c r="BD177" s="1" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="BG177" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH177" s="1" t="s">
+        <v>2361</v>
+      </c>
+      <c r="BI177" s="1" t="s">
         <v>2362</v>
-      </c>
-      <c r="BI177" s="1" t="s">
-        <v>2363</v>
       </c>
       <c r="BN177" s="1" t="s">
         <v>117</v>
@@ -44121,13 +44080,13 @@
         <v>118</v>
       </c>
       <c r="BS177" s="1" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="BT177" s="3">
         <v>35243</v>
       </c>
       <c r="BU177" s="1" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="BV177" s="1" t="s">
         <v>121</v>
@@ -44145,19 +44104,19 @@
         <v>102</v>
       </c>
       <c r="CD177" s="1" t="s">
+        <v>2365</v>
+      </c>
+      <c r="CE177" s="1" t="s">
         <v>2366</v>
       </c>
-      <c r="CE177" s="1" t="s">
+      <c r="CF177" s="1" t="s">
         <v>2367</v>
       </c>
-      <c r="CF177" s="1" t="s">
+      <c r="CH177" s="1" t="s">
         <v>2368</v>
       </c>
-      <c r="CH177" s="1" t="s">
+      <c r="CI177" s="1" t="s">
         <v>2369</v>
-      </c>
-      <c r="CI177" s="1" t="s">
-        <v>2370</v>
       </c>
       <c r="CJ177" s="1" t="s">
         <v>129</v>
@@ -44195,13 +44154,13 @@
         <v>97</v>
       </c>
       <c r="K178" s="1" t="s">
+        <v>2370</v>
+      </c>
+      <c r="L178" s="1" t="s">
         <v>2371</v>
       </c>
-      <c r="L178" s="1" t="s">
+      <c r="N178" s="1" t="s">
         <v>2372</v>
-      </c>
-      <c r="N178" s="1" t="s">
-        <v>2373</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>101</v>
@@ -44230,12 +44189,7 @@
       <c r="AA178" s="1">
         <v>0</v>
       </c>
-      <c r="AC178" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD178" s="1" t="s">
-        <v>2298</v>
-      </c>
+      <c r="AC178" s="3"/>
       <c r="AF178" s="1" t="s">
         <v>107</v>
       </c>
@@ -44285,7 +44239,7 @@
         <v>102</v>
       </c>
       <c r="AZ178" s="1" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="BB178" s="1">
         <v>1</v>
@@ -44294,13 +44248,13 @@
         <v>23</v>
       </c>
       <c r="BD178" s="1" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="BG178" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH178" s="1" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="BI178" s="1" t="s">
         <v>567</v>
@@ -44312,7 +44266,7 @@
         <v>106</v>
       </c>
       <c r="BU178" s="1" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="BV178" s="1" t="s">
         <v>121</v>
@@ -44330,16 +44284,16 @@
         <v>102</v>
       </c>
       <c r="CD178" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="CE178" s="1" t="s">
         <v>2378</v>
       </c>
-      <c r="CE178" s="1" t="s">
+      <c r="CF178" s="1" t="s">
         <v>2379</v>
       </c>
-      <c r="CF178" s="1" t="s">
+      <c r="CH178" s="1" t="s">
         <v>2380</v>
-      </c>
-      <c r="CH178" s="1" t="s">
-        <v>2381</v>
       </c>
       <c r="CI178" s="1" t="s">
         <v>573</v>
@@ -44380,13 +44334,13 @@
         <v>97</v>
       </c>
       <c r="K179" s="1" t="s">
+        <v>2381</v>
+      </c>
+      <c r="L179" s="1" t="s">
         <v>2382</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="N179" s="1" t="s">
         <v>2383</v>
-      </c>
-      <c r="N179" s="1" t="s">
-        <v>2384</v>
       </c>
       <c r="O179" s="1" t="s">
         <v>101</v>
@@ -44415,12 +44369,7 @@
       <c r="AA179" s="1">
         <v>0</v>
       </c>
-      <c r="AC179" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD179" s="1" t="s">
-        <v>2298</v>
-      </c>
+      <c r="AC179" s="3"/>
       <c r="AF179" s="1" t="s">
         <v>107</v>
       </c>
@@ -44470,7 +44419,7 @@
         <v>102</v>
       </c>
       <c r="AZ179" s="1" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="BB179" s="1">
         <v>1</v>
@@ -44479,13 +44428,13 @@
         <v>23</v>
       </c>
       <c r="BD179" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="BG179" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH179" s="1" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="BI179" s="1" t="s">
         <v>1021</v>
@@ -44500,7 +44449,7 @@
         <v>160</v>
       </c>
       <c r="BU179" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="BV179" s="1" t="s">
         <v>121</v>
@@ -44518,16 +44467,16 @@
         <v>102</v>
       </c>
       <c r="CD179" s="1" t="s">
+        <v>2388</v>
+      </c>
+      <c r="CE179" s="1" t="s">
         <v>2389</v>
       </c>
-      <c r="CE179" s="1" t="s">
+      <c r="CF179" s="1" t="s">
         <v>2390</v>
       </c>
-      <c r="CF179" s="1" t="s">
+      <c r="CH179" s="1" t="s">
         <v>2391</v>
-      </c>
-      <c r="CH179" s="1" t="s">
-        <v>2392</v>
       </c>
       <c r="CI179" s="1" t="s">
         <v>1027</v>
@@ -44562,19 +44511,19 @@
         <v>95</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K180" s="1" t="s">
+        <v>2393</v>
+      </c>
+      <c r="L180" s="1" t="s">
         <v>2394</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="N180" s="1" t="s">
         <v>2395</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>2396</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>101</v>
@@ -44609,12 +44558,7 @@
       <c r="AA180" s="1">
         <v>0</v>
       </c>
-      <c r="AC180" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD180" s="1" t="s">
-        <v>2298</v>
-      </c>
+      <c r="AC180" s="3"/>
       <c r="AF180" s="1" t="s">
         <v>107</v>
       </c>
@@ -44664,7 +44608,7 @@
         <v>102</v>
       </c>
       <c r="AZ180" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="BB180" s="1">
         <v>1</v>
@@ -44673,13 +44617,13 @@
         <v>23</v>
       </c>
       <c r="BD180" s="1" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="BG180" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH180" s="1" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="BN180" s="1" t="s">
         <v>117</v>
@@ -44688,7 +44632,7 @@
         <v>106</v>
       </c>
       <c r="BU180" s="1" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="BV180" s="1" t="s">
         <v>121</v>
@@ -44700,7 +44644,7 @@
         <v>111</v>
       </c>
       <c r="CA180" s="1" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="CB180" s="1" t="s">
         <v>123</v>
@@ -44709,16 +44653,16 @@
         <v>102</v>
       </c>
       <c r="CD180" s="1" t="s">
+        <v>2401</v>
+      </c>
+      <c r="CE180" s="1" t="s">
         <v>2402</v>
       </c>
-      <c r="CE180" s="1" t="s">
+      <c r="CF180" s="1" t="s">
         <v>2403</v>
       </c>
-      <c r="CF180" s="1" t="s">
+      <c r="CH180" s="1" t="s">
         <v>2404</v>
-      </c>
-      <c r="CH180" s="1" t="s">
-        <v>2405</v>
       </c>
       <c r="CI180" s="1" t="s">
         <v>129</v>
@@ -44759,13 +44703,13 @@
         <v>97</v>
       </c>
       <c r="K181" s="1" t="s">
+        <v>2405</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>2406</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="N181" s="1" t="s">
         <v>2407</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>2408</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>101</v>
@@ -44794,12 +44738,7 @@
       <c r="AA181" s="1">
         <v>0</v>
       </c>
-      <c r="AC181" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD181" s="1" t="s">
-        <v>2298</v>
-      </c>
+      <c r="AC181" s="3"/>
       <c r="AF181" s="1" t="s">
         <v>107</v>
       </c>
@@ -44846,7 +44785,7 @@
         <v>102</v>
       </c>
       <c r="AZ181" s="1" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="BB181" s="1">
         <v>1</v>
@@ -44855,16 +44794,16 @@
         <v>23</v>
       </c>
       <c r="BD181" s="1" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="BG181" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH181" s="1" t="s">
+        <v>2410</v>
+      </c>
+      <c r="BI181" s="1" t="s">
         <v>2411</v>
-      </c>
-      <c r="BI181" s="1" t="s">
-        <v>2412</v>
       </c>
       <c r="BN181" s="1" t="s">
         <v>117</v>
@@ -44876,13 +44815,13 @@
         <v>118</v>
       </c>
       <c r="BS181" s="1" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="BT181" s="3">
         <v>35950</v>
       </c>
       <c r="BU181" s="1" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="BV181" s="1" t="s">
         <v>121</v>
@@ -44900,19 +44839,19 @@
         <v>102</v>
       </c>
       <c r="CD181" s="1" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="CE181" s="1" t="s">
         <v>1809</v>
       </c>
       <c r="CF181" s="1" t="s">
+        <v>2415</v>
+      </c>
+      <c r="CH181" s="1" t="s">
         <v>2416</v>
       </c>
-      <c r="CH181" s="1" t="s">
+      <c r="CI181" s="1" t="s">
         <v>2417</v>
-      </c>
-      <c r="CI181" s="1" t="s">
-        <v>2418</v>
       </c>
       <c r="CJ181" s="1" t="s">
         <v>129</v>
@@ -44950,13 +44889,13 @@
         <v>97</v>
       </c>
       <c r="K182" s="1" t="s">
+        <v>2418</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>2419</v>
       </c>
-      <c r="L182" s="1" t="s">
+      <c r="N182" s="1" t="s">
         <v>2420</v>
-      </c>
-      <c r="N182" s="1" t="s">
-        <v>2421</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>101</v>
@@ -45037,7 +44976,7 @@
         <v>102</v>
       </c>
       <c r="AZ182" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="BB182" s="1">
         <v>1</v>
@@ -45046,13 +44985,13 @@
         <v>23</v>
       </c>
       <c r="BD182" s="1" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="BG182" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH182" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="BI182" s="1" t="s">
         <v>377</v>
@@ -45067,7 +45006,7 @@
         <v>160</v>
       </c>
       <c r="BU182" s="1" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="BV182" s="1" t="s">
         <v>121</v>
@@ -45085,16 +45024,16 @@
         <v>102</v>
       </c>
       <c r="CD182" s="1" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="CE182" s="1" t="s">
         <v>420</v>
       </c>
       <c r="CF182" s="1" t="s">
+        <v>2426</v>
+      </c>
+      <c r="CH182" s="1" t="s">
         <v>2427</v>
-      </c>
-      <c r="CH182" s="1" t="s">
-        <v>2428</v>
       </c>
       <c r="CI182" s="1" t="s">
         <v>384</v>
@@ -45135,13 +45074,13 @@
         <v>97</v>
       </c>
       <c r="K183" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>2429</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="N183" s="1" t="s">
         <v>2430</v>
-      </c>
-      <c r="N183" s="1" t="s">
-        <v>2431</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>101</v>
@@ -45216,7 +45155,7 @@
         <v>102</v>
       </c>
       <c r="AZ183" s="1" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="BB183" s="1">
         <v>1</v>
@@ -45225,16 +45164,16 @@
         <v>23</v>
       </c>
       <c r="BD183" s="1" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="BG183" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH183" s="1" t="s">
+        <v>2433</v>
+      </c>
+      <c r="BI183" s="1" t="s">
         <v>2434</v>
-      </c>
-      <c r="BI183" s="1" t="s">
-        <v>2435</v>
       </c>
       <c r="BN183" s="1" t="s">
         <v>117</v>
@@ -45246,13 +45185,13 @@
         <v>229</v>
       </c>
       <c r="BS183" s="1" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="BT183" s="3">
         <v>36099</v>
       </c>
       <c r="BU183" s="1" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="BV183" s="1" t="s">
         <v>121</v>
@@ -45270,19 +45209,19 @@
         <v>102</v>
       </c>
       <c r="CD183" s="1" t="s">
+        <v>2437</v>
+      </c>
+      <c r="CE183" s="1" t="s">
         <v>2438</v>
       </c>
-      <c r="CE183" s="1" t="s">
+      <c r="CF183" s="1" t="s">
         <v>2439</v>
       </c>
-      <c r="CF183" s="1" t="s">
+      <c r="CH183" s="1" t="s">
         <v>2440</v>
       </c>
-      <c r="CH183" s="1" t="s">
+      <c r="CI183" s="1" t="s">
         <v>2441</v>
-      </c>
-      <c r="CI183" s="1" t="s">
-        <v>2442</v>
       </c>
       <c r="CJ183" s="1" t="s">
         <v>129</v>
@@ -45320,13 +45259,13 @@
         <v>97</v>
       </c>
       <c r="K184" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="L184" s="1" t="s">
         <v>2443</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="N184" s="1" t="s">
         <v>2444</v>
-      </c>
-      <c r="N184" s="1" t="s">
-        <v>2445</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>101</v>
@@ -45401,7 +45340,7 @@
         <v>102</v>
       </c>
       <c r="AZ184" s="1" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="BB184" s="1">
         <v>1</v>
@@ -45410,16 +45349,16 @@
         <v>23</v>
       </c>
       <c r="BD184" s="1" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="BG184" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH184" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="BI184" s="1" t="s">
         <v>2448</v>
-      </c>
-      <c r="BI184" s="1" t="s">
-        <v>2449</v>
       </c>
       <c r="BN184" s="1" t="s">
         <v>117</v>
@@ -45431,13 +45370,13 @@
         <v>103</v>
       </c>
       <c r="BS184" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="BT184" s="3">
         <v>37735</v>
       </c>
       <c r="BU184" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="BV184" s="1" t="s">
         <v>121</v>
@@ -45455,19 +45394,19 @@
         <v>102</v>
       </c>
       <c r="CD184" s="1" t="s">
+        <v>2451</v>
+      </c>
+      <c r="CE184" s="1" t="s">
         <v>2452</v>
       </c>
-      <c r="CE184" s="1" t="s">
+      <c r="CF184" s="1" t="s">
         <v>2453</v>
       </c>
-      <c r="CF184" s="1" t="s">
+      <c r="CH184" s="1" t="s">
         <v>2454</v>
       </c>
-      <c r="CH184" s="1" t="s">
+      <c r="CI184" s="1" t="s">
         <v>2455</v>
-      </c>
-      <c r="CI184" s="1" t="s">
-        <v>2456</v>
       </c>
       <c r="CJ184" s="1" t="s">
         <v>129</v>
@@ -45505,13 +45444,13 @@
         <v>97</v>
       </c>
       <c r="K185" s="1" t="s">
+        <v>2456</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>2457</v>
       </c>
-      <c r="L185" s="1" t="s">
+      <c r="N185" s="1" t="s">
         <v>2458</v>
-      </c>
-      <c r="N185" s="1" t="s">
-        <v>2459</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>101</v>
@@ -45589,7 +45528,7 @@
         <v>102</v>
       </c>
       <c r="AZ185" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="BB185" s="1">
         <v>1</v>
@@ -45598,13 +45537,13 @@
         <v>23</v>
       </c>
       <c r="BD185" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="BG185" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH185" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="BN185" s="1" t="s">
         <v>117</v>
@@ -45613,7 +45552,7 @@
         <v>106</v>
       </c>
       <c r="BU185" s="1" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="BV185" s="1" t="s">
         <v>121</v>
@@ -45631,16 +45570,16 @@
         <v>102</v>
       </c>
       <c r="CD185" s="1" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="CE185" s="1" t="s">
         <v>872</v>
       </c>
       <c r="CF185" s="1" t="s">
+        <v>2464</v>
+      </c>
+      <c r="CH185" s="1" t="s">
         <v>2465</v>
-      </c>
-      <c r="CH185" s="1" t="s">
-        <v>2466</v>
       </c>
       <c r="CI185" s="1" t="s">
         <v>129</v>
@@ -45681,13 +45620,13 @@
         <v>97</v>
       </c>
       <c r="K186" s="1" t="s">
+        <v>2466</v>
+      </c>
+      <c r="L186" s="1" t="s">
         <v>2467</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>2468</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>2469</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>101</v>
@@ -45723,10 +45662,10 @@
         <v>107</v>
       </c>
       <c r="AG186" s="1" t="s">
+        <v>2469</v>
+      </c>
+      <c r="AH186" s="1" t="s">
         <v>2470</v>
-      </c>
-      <c r="AH186" s="1" t="s">
-        <v>2471</v>
       </c>
       <c r="AI186" s="1" t="s">
         <v>102</v>
@@ -45768,7 +45707,7 @@
         <v>102</v>
       </c>
       <c r="AZ186" s="1" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="BB186" s="1">
         <v>1</v>
@@ -45777,13 +45716,13 @@
         <v>23</v>
       </c>
       <c r="BD186" s="1" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="BG186" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH186" s="1" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="BN186" s="1" t="s">
         <v>117</v>
@@ -45792,7 +45731,7 @@
         <v>106</v>
       </c>
       <c r="BU186" s="1" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="BV186" s="1" t="s">
         <v>121</v>
@@ -45813,13 +45752,13 @@
         <v>1590</v>
       </c>
       <c r="CE186" s="1" t="s">
+        <v>2475</v>
+      </c>
+      <c r="CF186" s="1" t="s">
         <v>2476</v>
       </c>
-      <c r="CF186" s="1" t="s">
+      <c r="CH186" s="1" t="s">
         <v>2477</v>
-      </c>
-      <c r="CH186" s="1" t="s">
-        <v>2478</v>
       </c>
       <c r="CI186" s="1" t="s">
         <v>129</v>
@@ -45860,13 +45799,13 @@
         <v>97</v>
       </c>
       <c r="K187" s="1" t="s">
+        <v>2478</v>
+      </c>
+      <c r="L187" s="1" t="s">
         <v>2479</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>2480</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>2481</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>101</v>
@@ -45944,7 +45883,7 @@
         <v>102</v>
       </c>
       <c r="AZ187" s="1" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="BB187" s="1">
         <v>1</v>
@@ -45953,19 +45892,19 @@
         <v>23</v>
       </c>
       <c r="BD187" s="1" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="BG187" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH187" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="BI187" s="1" t="s">
         <v>2484</v>
       </c>
-      <c r="BI187" s="1" t="s">
+      <c r="BJ187" s="1" t="s">
         <v>2485</v>
-      </c>
-      <c r="BJ187" s="1" t="s">
-        <v>2486</v>
       </c>
       <c r="BN187" s="1" t="s">
         <v>117</v>
@@ -45977,13 +45916,13 @@
         <v>103</v>
       </c>
       <c r="BS187" s="1" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="BT187" s="3">
         <v>43602</v>
       </c>
       <c r="BU187" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="BV187" s="1" t="s">
         <v>121</v>
@@ -46007,16 +45946,16 @@
         <v>960</v>
       </c>
       <c r="CF187" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="CH187" s="1" t="s">
         <v>2489</v>
       </c>
-      <c r="CH187" s="1" t="s">
+      <c r="CI187" s="1" t="s">
         <v>2490</v>
       </c>
-      <c r="CI187" s="1" t="s">
+      <c r="CJ187" s="1" t="s">
         <v>2491</v>
-      </c>
-      <c r="CJ187" s="1" t="s">
-        <v>2492</v>
       </c>
     </row>
     <row r="188" spans="1:88" x14ac:dyDescent="0.25">
@@ -46051,13 +45990,13 @@
         <v>97</v>
       </c>
       <c r="K188" s="1" t="s">
+        <v>2492</v>
+      </c>
+      <c r="L188" s="1" t="s">
         <v>2493</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="N188" s="1" t="s">
         <v>2494</v>
-      </c>
-      <c r="N188" s="1" t="s">
-        <v>2495</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>101</v>
@@ -46135,7 +46074,7 @@
         <v>102</v>
       </c>
       <c r="AZ188" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="BB188" s="1">
         <v>1</v>
@@ -46144,13 +46083,13 @@
         <v>23</v>
       </c>
       <c r="BD188" s="1" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="BG188" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH188" s="1" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="BI188" s="1" t="s">
         <v>935</v>
@@ -46162,7 +46101,7 @@
         <v>106</v>
       </c>
       <c r="BU188" s="1" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="BV188" s="1" t="s">
         <v>121</v>
@@ -46180,16 +46119,16 @@
         <v>102</v>
       </c>
       <c r="CD188" s="1" t="s">
+        <v>2499</v>
+      </c>
+      <c r="CE188" s="1" t="s">
         <v>2500</v>
       </c>
-      <c r="CE188" s="1" t="s">
+      <c r="CF188" s="1" t="s">
         <v>2501</v>
       </c>
-      <c r="CF188" s="1" t="s">
+      <c r="CH188" s="1" t="s">
         <v>2502</v>
-      </c>
-      <c r="CH188" s="1" t="s">
-        <v>2503</v>
       </c>
       <c r="CI188" s="1" t="s">
         <v>941</v>
@@ -46230,13 +46169,13 @@
         <v>97</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>2503</v>
+      </c>
+      <c r="L189" s="1" t="s">
         <v>2504</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="N189" s="1" t="s">
         <v>2505</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>2506</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>101</v>
@@ -46275,7 +46214,7 @@
         <v>42247</v>
       </c>
       <c r="AD189" s="1" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="AF189" s="1" t="s">
         <v>107</v>
@@ -46329,16 +46268,16 @@
         <v>23</v>
       </c>
       <c r="BD189" s="1" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="BG189" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH189" s="1" t="s">
+        <v>2508</v>
+      </c>
+      <c r="BI189" s="1" t="s">
         <v>2509</v>
-      </c>
-      <c r="BI189" s="1" t="s">
-        <v>2510</v>
       </c>
       <c r="BN189" s="1" t="s">
         <v>117</v>
@@ -46350,13 +46289,13 @@
         <v>229</v>
       </c>
       <c r="BS189" s="1" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="BT189" s="3">
         <v>36580</v>
       </c>
       <c r="BU189" s="1" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="BV189" s="1" t="s">
         <v>121</v>
@@ -46377,7 +46316,7 @@
         <v>102</v>
       </c>
       <c r="CD189" s="1" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="CE189" s="1" t="s">
         <v>299</v>
@@ -46386,10 +46325,10 @@
         <v>1622</v>
       </c>
       <c r="CH189" s="1" t="s">
+        <v>2513</v>
+      </c>
+      <c r="CI189" s="1" t="s">
         <v>2514</v>
-      </c>
-      <c r="CI189" s="1" t="s">
-        <v>2515</v>
       </c>
       <c r="CJ189" s="1" t="s">
         <v>129</v>
@@ -46427,16 +46366,16 @@
         <v>97</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>2515</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>2516</v>
-      </c>
-      <c r="L190" s="1" t="s">
-        <v>2517</v>
       </c>
       <c r="M190" s="1" t="s">
         <v>103</v>
       </c>
       <c r="N190" s="1" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>101</v>
@@ -46520,13 +46459,13 @@
         <v>23</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="BG190" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH190" s="1" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="BN190" s="1" t="s">
         <v>117</v>
@@ -46538,13 +46477,13 @@
         <v>118</v>
       </c>
       <c r="BS190" s="1" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="BT190" s="3">
         <v>37747</v>
       </c>
       <c r="BU190" s="1" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="BV190" s="1" t="s">
         <v>121</v>
@@ -46568,10 +46507,10 @@
         <v>661</v>
       </c>
       <c r="CF190" s="1" t="s">
+        <v>2522</v>
+      </c>
+      <c r="CH190" s="1" t="s">
         <v>2523</v>
-      </c>
-      <c r="CH190" s="1" t="s">
-        <v>2524</v>
       </c>
       <c r="CI190" s="1" t="s">
         <v>129</v>
@@ -46612,13 +46551,13 @@
         <v>97</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2524</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2525</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2526</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2527</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>101</v>
@@ -46702,13 +46641,13 @@
         <v>23</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="BG191" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH191" s="1" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="BI191" s="1" t="s">
         <v>838</v>
@@ -46720,7 +46659,7 @@
         <v>106</v>
       </c>
       <c r="BU191" s="1" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="BV191" s="1" t="s">
         <v>121</v>
@@ -46738,16 +46677,16 @@
         <v>102</v>
       </c>
       <c r="CD191" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="CE191" s="1" t="s">
         <v>2531</v>
       </c>
-      <c r="CE191" s="1" t="s">
+      <c r="CF191" s="1" t="s">
         <v>2532</v>
       </c>
-      <c r="CF191" s="1" t="s">
+      <c r="CH191" s="1" t="s">
         <v>2533</v>
-      </c>
-      <c r="CH191" s="1" t="s">
-        <v>2534</v>
       </c>
       <c r="CI191" s="1" t="s">
         <v>843</v>
@@ -46788,13 +46727,13 @@
         <v>97</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2534</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2535</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>2536</v>
-      </c>
-      <c r="N192" s="1" t="s">
-        <v>2537</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>101</v>
@@ -46881,13 +46820,13 @@
         <v>23</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="BG192" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH192" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="BI192" s="1" t="s">
         <v>1021</v>
@@ -46902,7 +46841,7 @@
         <v>160</v>
       </c>
       <c r="BU192" s="1" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="BV192" s="1" t="s">
         <v>121</v>
@@ -46920,16 +46859,16 @@
         <v>102</v>
       </c>
       <c r="CD192" s="1" t="s">
+        <v>2540</v>
+      </c>
+      <c r="CE192" s="1" t="s">
         <v>2541</v>
       </c>
-      <c r="CE192" s="1" t="s">
+      <c r="CF192" s="1" t="s">
         <v>2542</v>
       </c>
-      <c r="CF192" s="1" t="s">
+      <c r="CH192" s="1" t="s">
         <v>2543</v>
-      </c>
-      <c r="CH192" s="1" t="s">
-        <v>2544</v>
       </c>
       <c r="CI192" s="1" t="s">
         <v>1027</v>
@@ -46970,13 +46909,13 @@
         <v>97</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2544</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2545</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2546</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2547</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>101</v>
@@ -47057,16 +46996,16 @@
         <v>23</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="BG193" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH193" s="1" t="s">
+        <v>2548</v>
+      </c>
+      <c r="BI193" s="1" t="s">
         <v>2549</v>
-      </c>
-      <c r="BI193" s="1" t="s">
-        <v>2550</v>
       </c>
       <c r="BN193" s="1" t="s">
         <v>117</v>
@@ -47078,13 +47017,13 @@
         <v>103</v>
       </c>
       <c r="BS193" s="1" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="BT193" s="3">
         <v>37334</v>
       </c>
       <c r="BU193" s="1" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="BV193" s="1" t="s">
         <v>121</v>
@@ -47105,16 +47044,16 @@
         <v>502</v>
       </c>
       <c r="CE193" s="1" t="s">
+        <v>2552</v>
+      </c>
+      <c r="CF193" s="1" t="s">
         <v>2553</v>
       </c>
-      <c r="CF193" s="1" t="s">
+      <c r="CH193" s="1" t="s">
         <v>2554</v>
       </c>
-      <c r="CH193" s="1" t="s">
+      <c r="CI193" s="1" t="s">
         <v>2555</v>
-      </c>
-      <c r="CI193" s="1" t="s">
-        <v>2556</v>
       </c>
       <c r="CJ193" s="1" t="s">
         <v>129</v>
@@ -47152,13 +47091,13 @@
         <v>97</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2556</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2557</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2558</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2559</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>101</v>
@@ -47242,16 +47181,16 @@
         <v>23</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="BG194" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH194" s="1" t="s">
+        <v>2560</v>
+      </c>
+      <c r="BI194" s="1" t="s">
         <v>2561</v>
-      </c>
-      <c r="BI194" s="1" t="s">
-        <v>2562</v>
       </c>
       <c r="BN194" s="1" t="s">
         <v>117</v>
@@ -47263,13 +47202,13 @@
         <v>103</v>
       </c>
       <c r="BS194" s="1" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="BT194" s="3">
         <v>37904</v>
       </c>
       <c r="BU194" s="1" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="BV194" s="1" t="s">
         <v>121</v>
@@ -47290,16 +47229,16 @@
         <v>960</v>
       </c>
       <c r="CE194" s="1" t="s">
+        <v>2564</v>
+      </c>
+      <c r="CF194" s="1" t="s">
         <v>2565</v>
       </c>
-      <c r="CF194" s="1" t="s">
+      <c r="CH194" s="1" t="s">
         <v>2566</v>
       </c>
-      <c r="CH194" s="1" t="s">
+      <c r="CI194" s="1" t="s">
         <v>2567</v>
-      </c>
-      <c r="CI194" s="1" t="s">
-        <v>2568</v>
       </c>
       <c r="CJ194" s="1" t="s">
         <v>129</v>
@@ -47337,13 +47276,13 @@
         <v>97</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2568</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2569</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="N195" s="1" t="s">
         <v>2570</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>2571</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>101</v>
@@ -47427,13 +47366,13 @@
         <v>23</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="BG195" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH195" s="1" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="BI195" s="1" t="s">
         <v>377</v>
@@ -47448,13 +47387,13 @@
         <v>118</v>
       </c>
       <c r="BS195" s="1" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="BT195" s="3">
         <v>36111</v>
       </c>
       <c r="BU195" s="1" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="BV195" s="1" t="s">
         <v>121</v>
@@ -47472,16 +47411,16 @@
         <v>102</v>
       </c>
       <c r="CD195" s="1" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="CE195" s="1" t="s">
         <v>1144</v>
       </c>
       <c r="CF195" s="1" t="s">
+        <v>2576</v>
+      </c>
+      <c r="CH195" s="1" t="s">
         <v>2577</v>
-      </c>
-      <c r="CH195" s="1" t="s">
-        <v>2578</v>
       </c>
       <c r="CI195" s="1" t="s">
         <v>384</v>
@@ -47522,13 +47461,13 @@
         <v>97</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2578</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2579</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2580</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2581</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>101</v>
@@ -47609,16 +47548,16 @@
         <v>23</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="BG196" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH196" s="1" t="s">
+        <v>2582</v>
+      </c>
+      <c r="BI196" s="1" t="s">
         <v>2583</v>
-      </c>
-      <c r="BI196" s="1" t="s">
-        <v>2584</v>
       </c>
       <c r="BN196" s="1" t="s">
         <v>117</v>
@@ -47630,13 +47569,13 @@
         <v>118</v>
       </c>
       <c r="BS196" s="1" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="BT196" s="3">
         <v>37785</v>
       </c>
       <c r="BU196" s="1" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="BV196" s="1" t="s">
         <v>121</v>
@@ -47654,19 +47593,19 @@
         <v>102</v>
       </c>
       <c r="CD196" s="1" t="s">
+        <v>2586</v>
+      </c>
+      <c r="CE196" s="1" t="s">
         <v>2587</v>
       </c>
-      <c r="CE196" s="1" t="s">
+      <c r="CF196" s="1" t="s">
         <v>2588</v>
       </c>
-      <c r="CF196" s="1" t="s">
+      <c r="CH196" s="1" t="s">
         <v>2589</v>
       </c>
-      <c r="CH196" s="1" t="s">
+      <c r="CI196" s="1" t="s">
         <v>2590</v>
-      </c>
-      <c r="CI196" s="1" t="s">
-        <v>2591</v>
       </c>
       <c r="CJ196" s="1" t="s">
         <v>129</v>
@@ -47698,16 +47637,16 @@
         <v>95</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2592</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2593</v>
-      </c>
-      <c r="L197" s="1" t="s">
-        <v>2594</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>101</v>
@@ -47785,7 +47724,7 @@
         <v>20</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="BN197" s="1" t="s">
         <v>117</v>
@@ -47800,7 +47739,7 @@
         <v>0</v>
       </c>
       <c r="CA197" s="1" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="CB197" s="1" t="s">
         <v>123</v>
@@ -47809,7 +47748,7 @@
         <v>102</v>
       </c>
       <c r="CD197" s="1" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="CH197" s="1" t="s">
         <v>129</v>
@@ -47853,13 +47792,13 @@
         <v>97</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2596</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2597</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="N198" s="1" t="s">
         <v>2598</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>2599</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>101</v>
@@ -47937,7 +47876,7 @@
         <v>102</v>
       </c>
       <c r="AZ198" s="1" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="BB198" s="1">
         <v>1</v>
@@ -47946,7 +47885,7 @@
         <v>23</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="BG198" s="1" t="s">
         <v>114</v>
@@ -47964,7 +47903,7 @@
         <v>106</v>
       </c>
       <c r="BU198" s="1" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="BV198" s="1" t="s">
         <v>121</v>
@@ -47982,13 +47921,13 @@
         <v>102</v>
       </c>
       <c r="CD198" s="1" t="s">
+        <v>2602</v>
+      </c>
+      <c r="CE198" s="1" t="s">
         <v>2603</v>
       </c>
-      <c r="CE198" s="1" t="s">
+      <c r="CF198" s="1" t="s">
         <v>2604</v>
-      </c>
-      <c r="CF198" s="1" t="s">
-        <v>2605</v>
       </c>
       <c r="CH198" s="1" t="s">
         <v>2066</v>
@@ -48032,13 +47971,13 @@
         <v>97</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2606</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2607</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2608</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>101</v>
@@ -48116,7 +48055,7 @@
         <v>102</v>
       </c>
       <c r="AZ199" s="1" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="BB199" s="1">
         <v>1</v>
@@ -48125,13 +48064,13 @@
         <v>23</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="BG199" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH199" s="1" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="BI199" s="1" t="s">
         <v>1848</v>
@@ -48143,7 +48082,7 @@
         <v>106</v>
       </c>
       <c r="BU199" s="1" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="BV199" s="1" t="s">
         <v>121</v>
@@ -48161,16 +48100,16 @@
         <v>102</v>
       </c>
       <c r="CD199" s="1" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="CE199" s="1" t="s">
         <v>1121</v>
       </c>
       <c r="CF199" s="1" t="s">
+        <v>2613</v>
+      </c>
+      <c r="CH199" s="1" t="s">
         <v>2614</v>
-      </c>
-      <c r="CH199" s="1" t="s">
-        <v>2615</v>
       </c>
       <c r="CI199" s="1" t="s">
         <v>1852</v>
@@ -48211,13 +48150,13 @@
         <v>97</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2616</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2617</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2618</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>101</v>
@@ -48295,7 +48234,7 @@
         <v>102</v>
       </c>
       <c r="AZ200" s="1" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="BB200" s="1">
         <v>1</v>
@@ -48304,13 +48243,13 @@
         <v>23</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="BG200" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH200" s="1" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="BN200" s="1" t="s">
         <v>117</v>
@@ -48319,7 +48258,7 @@
         <v>106</v>
       </c>
       <c r="BU200" s="1" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="BV200" s="1" t="s">
         <v>121</v>
@@ -48340,13 +48279,13 @@
         <v>1121</v>
       </c>
       <c r="CE200" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="CF200" s="1" t="s">
         <v>2623</v>
       </c>
-      <c r="CF200" s="1" t="s">
+      <c r="CH200" s="1" t="s">
         <v>2624</v>
-      </c>
-      <c r="CH200" s="1" t="s">
-        <v>2625</v>
       </c>
       <c r="CI200" s="1" t="s">
         <v>129</v>
@@ -48387,13 +48326,13 @@
         <v>97</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2625</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2626</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2627</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2628</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>101</v>
@@ -48471,7 +48410,7 @@
         <v>102</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="BB201" s="1">
         <v>1</v>
@@ -48480,16 +48419,16 @@
         <v>23</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="BG201" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH201" s="1" t="s">
+        <v>2630</v>
+      </c>
+      <c r="BI201" s="1" t="s">
         <v>2631</v>
-      </c>
-      <c r="BI201" s="1" t="s">
-        <v>2632</v>
       </c>
       <c r="BN201" s="1" t="s">
         <v>117</v>
@@ -48504,13 +48443,13 @@
         <v>160</v>
       </c>
       <c r="BS201" s="1" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="BT201" s="3">
         <v>37513</v>
       </c>
       <c r="BU201" s="1" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="BV201" s="1" t="s">
         <v>121</v>
@@ -48528,19 +48467,19 @@
         <v>102</v>
       </c>
       <c r="CD201" s="1" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="CE201" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CF201" s="1" t="s">
+        <v>2635</v>
+      </c>
+      <c r="CH201" s="1" t="s">
         <v>2636</v>
       </c>
-      <c r="CH201" s="1" t="s">
+      <c r="CI201" s="1" t="s">
         <v>2637</v>
-      </c>
-      <c r="CI201" s="1" t="s">
-        <v>2638</v>
       </c>
       <c r="CJ201" s="1" t="s">
         <v>129</v>
@@ -48578,13 +48517,13 @@
         <v>97</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2638</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2639</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2640</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2641</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>101</v>
@@ -48668,16 +48607,16 @@
         <v>23</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="BG202" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH202" s="1" t="s">
+        <v>2642</v>
+      </c>
+      <c r="BI202" s="1" t="s">
         <v>2643</v>
-      </c>
-      <c r="BI202" s="1" t="s">
-        <v>2644</v>
       </c>
       <c r="BN202" s="1" t="s">
         <v>117</v>
@@ -48689,13 +48628,13 @@
         <v>229</v>
       </c>
       <c r="BS202" s="1" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="BT202" s="3">
         <v>41024</v>
       </c>
       <c r="BU202" s="1" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="BV202" s="1" t="s">
         <v>121</v>
@@ -48713,19 +48652,19 @@
         <v>102</v>
       </c>
       <c r="CD202" s="1" t="s">
+        <v>2646</v>
+      </c>
+      <c r="CE202" s="1" t="s">
         <v>2647</v>
       </c>
-      <c r="CE202" s="1" t="s">
+      <c r="CF202" s="1" t="s">
         <v>2648</v>
       </c>
-      <c r="CF202" s="1" t="s">
+      <c r="CH202" s="1" t="s">
         <v>2649</v>
       </c>
-      <c r="CH202" s="1" t="s">
+      <c r="CI202" s="1" t="s">
         <v>2650</v>
-      </c>
-      <c r="CI202" s="1" t="s">
-        <v>2651</v>
       </c>
       <c r="CJ202" s="1" t="s">
         <v>129</v>
@@ -48763,10 +48702,10 @@
         <v>97</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2651</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2652</v>
-      </c>
-      <c r="L203" s="1" t="s">
-        <v>2653</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>101</v>
@@ -48793,10 +48732,10 @@
         <v>107</v>
       </c>
       <c r="AG203" s="1" t="s">
+        <v>2469</v>
+      </c>
+      <c r="AH203" s="1" t="s">
         <v>2470</v>
-      </c>
-      <c r="AH203" s="1" t="s">
-        <v>2471</v>
       </c>
       <c r="AJ203" s="1" t="s">
         <v>110</v>
@@ -48838,7 +48777,7 @@
         <v>102</v>
       </c>
       <c r="AZ203" s="1" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="BB203" s="1">
         <v>2</v>
@@ -48847,7 +48786,7 @@
         <v>21</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="BN203" s="1" t="s">
         <v>117</v>
@@ -48874,7 +48813,7 @@
         <v>102</v>
       </c>
       <c r="CD203" s="1" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="CH203" s="1" t="s">
         <v>1842</v>
@@ -48918,13 +48857,13 @@
         <v>97</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2655</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2656</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="N204" s="1" t="s">
         <v>2657</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>2658</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>101</v>
@@ -48999,7 +48938,7 @@
         <v>102</v>
       </c>
       <c r="AZ204" s="1" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="BB204" s="1">
         <v>1</v>
@@ -49008,13 +48947,13 @@
         <v>23</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="BG204" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH204" s="1" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="BI204" s="1" t="s">
         <v>737</v>
@@ -49029,13 +48968,13 @@
         <v>103</v>
       </c>
       <c r="BS204" s="1" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="BT204" s="3">
         <v>37336</v>
       </c>
       <c r="BU204" s="1" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="BV204" s="1" t="s">
         <v>121</v>
@@ -49053,16 +48992,16 @@
         <v>102</v>
       </c>
       <c r="CD204" s="1" t="s">
+        <v>2663</v>
+      </c>
+      <c r="CE204" s="1" t="s">
         <v>2664</v>
       </c>
-      <c r="CE204" s="1" t="s">
+      <c r="CF204" s="1" t="s">
         <v>2665</v>
       </c>
-      <c r="CF204" s="1" t="s">
+      <c r="CH204" s="1" t="s">
         <v>2666</v>
-      </c>
-      <c r="CH204" s="1" t="s">
-        <v>2667</v>
       </c>
       <c r="CI204" s="1" t="s">
         <v>743</v>
@@ -49103,13 +49042,13 @@
         <v>97</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2667</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2668</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2669</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2670</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>101</v>
@@ -49187,7 +49126,7 @@
         <v>102</v>
       </c>
       <c r="AZ205" s="1" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="BB205" s="1">
         <v>1</v>
@@ -49196,13 +49135,13 @@
         <v>23</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="BG205" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH205" s="1" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="BI205" s="1" t="s">
         <v>2262</v>
@@ -49214,7 +49153,7 @@
         <v>106</v>
       </c>
       <c r="BU205" s="1" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="BV205" s="1" t="s">
         <v>121</v>
@@ -49232,16 +49171,16 @@
         <v>102</v>
       </c>
       <c r="CD205" s="1" t="s">
+        <v>2674</v>
+      </c>
+      <c r="CE205" s="1" t="s">
         <v>2675</v>
       </c>
-      <c r="CE205" s="1" t="s">
+      <c r="CF205" s="1" t="s">
         <v>2676</v>
       </c>
-      <c r="CF205" s="1" t="s">
+      <c r="CH205" s="1" t="s">
         <v>2677</v>
-      </c>
-      <c r="CH205" s="1" t="s">
-        <v>2678</v>
       </c>
       <c r="CI205" s="1" t="s">
         <v>2267</v>
@@ -49282,13 +49221,13 @@
         <v>97</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2678</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2679</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="N206" s="1" t="s">
         <v>2680</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2681</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>101</v>
@@ -49375,13 +49314,13 @@
         <v>23</v>
       </c>
       <c r="BD206" s="1" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="BG206" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH206" s="1" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="BN206" s="1" t="s">
         <v>117</v>
@@ -49390,7 +49329,7 @@
         <v>106</v>
       </c>
       <c r="BU206" s="1" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="BV206" s="1" t="s">
         <v>121</v>
@@ -49408,16 +49347,16 @@
         <v>102</v>
       </c>
       <c r="CD206" s="1" t="s">
+        <v>2684</v>
+      </c>
+      <c r="CE206" s="1" t="s">
         <v>2685</v>
       </c>
-      <c r="CE206" s="1" t="s">
+      <c r="CF206" s="1" t="s">
         <v>2686</v>
       </c>
-      <c r="CF206" s="1" t="s">
+      <c r="CH206" s="1" t="s">
         <v>2687</v>
-      </c>
-      <c r="CH206" s="1" t="s">
-        <v>2688</v>
       </c>
       <c r="CI206" s="1" t="s">
         <v>129</v>
@@ -49458,13 +49397,13 @@
         <v>97</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2688</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2689</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>2690</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2691</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>101</v>
@@ -49499,12 +49438,7 @@
       <c r="AA207" s="1">
         <v>0</v>
       </c>
-      <c r="AC207" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD207" s="1" t="s">
-        <v>2692</v>
-      </c>
+      <c r="AC207" s="3"/>
       <c r="AF207" s="1" t="s">
         <v>107</v>
       </c>
@@ -49554,7 +49488,7 @@
         <v>102</v>
       </c>
       <c r="AZ207" s="1" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
       <c r="BB207" s="1">
         <v>1</v>
@@ -49563,16 +49497,16 @@
         <v>23</v>
       </c>
       <c r="BD207" s="1" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
       <c r="BG207" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH207" s="1" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="BI207" s="1" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
       <c r="BN207" s="1" t="s">
         <v>117</v>
@@ -49581,7 +49515,7 @@
         <v>106</v>
       </c>
       <c r="BU207" s="1" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
       <c r="BV207" s="1" t="s">
         <v>121</v>
@@ -49605,16 +49539,16 @@
         <v>1168</v>
       </c>
       <c r="CE207" s="1" t="s">
+        <v>2696</v>
+      </c>
+      <c r="CF207" s="1" t="s">
+        <v>2697</v>
+      </c>
+      <c r="CH207" s="1" t="s">
         <v>2698</v>
       </c>
-      <c r="CF207" s="1" t="s">
+      <c r="CI207" s="1" t="s">
         <v>2699</v>
-      </c>
-      <c r="CH207" s="1" t="s">
-        <v>2700</v>
-      </c>
-      <c r="CI207" s="1" t="s">
-        <v>2701</v>
       </c>
       <c r="CJ207" s="1" t="s">
         <v>129</v>
@@ -49634,7 +49568,7 @@
         <v>1433</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>102</v>
@@ -49646,16 +49580,16 @@
         <v>95</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>2705</v>
+        <v>2703</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>111</v>
@@ -49679,7 +49613,7 @@
         <v>107</v>
       </c>
       <c r="AG208" s="1" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="AH208" s="1" t="s">
         <v>373</v>
@@ -49724,7 +49658,7 @@
         <v>0</v>
       </c>
       <c r="CA208" s="1" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
       <c r="CB208" s="1" t="s">
         <v>123</v>
@@ -49733,10 +49667,10 @@
         <v>102</v>
       </c>
       <c r="CD208" s="1" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="CF208" s="1" t="s">
-        <v>2705</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="209" spans="1:88" x14ac:dyDescent="0.25">
@@ -49753,7 +49687,7 @@
         <v>1433</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>102</v>
@@ -49765,16 +49699,16 @@
         <v>95</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>2710</v>
+        <v>2708</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>2711</v>
+        <v>2709</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>2712</v>
+        <v>2710</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>111</v>
@@ -49801,7 +49735,7 @@
         <v>107</v>
       </c>
       <c r="AG209" s="1" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="AH209" s="1" t="s">
         <v>373</v>
@@ -49846,7 +49780,7 @@
         <v>0</v>
       </c>
       <c r="CA209" s="1" t="s">
-        <v>2713</v>
+        <v>2711</v>
       </c>
       <c r="CB209" s="1" t="s">
         <v>123</v>
@@ -49855,10 +49789,10 @@
         <v>102</v>
       </c>
       <c r="CD209" s="1" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="CF209" s="1" t="s">
-        <v>2712</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="210" spans="1:88" x14ac:dyDescent="0.25">
@@ -49893,10 +49827,10 @@
         <v>97</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>2714</v>
+        <v>2712</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>2715</v>
+        <v>2713</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>111</v>
@@ -49920,7 +49854,7 @@
         <v>107</v>
       </c>
       <c r="AG210" s="1" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="AH210" s="1" t="s">
         <v>373</v>
@@ -49974,10 +49908,10 @@
         <v>102</v>
       </c>
       <c r="CD210" s="1" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="CF210" s="1" t="s">
-        <v>2715</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="211" spans="1:88" x14ac:dyDescent="0.25">
@@ -49994,7 +49928,7 @@
         <v>185</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>2716</v>
+        <v>2714</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>93</v>
@@ -50006,16 +49940,16 @@
         <v>95</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>2717</v>
+        <v>2715</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>2718</v>
+        <v>2716</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>2719</v>
+        <v>2717</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>111</v>
@@ -50084,7 +50018,7 @@
         <v>0</v>
       </c>
       <c r="CA211" s="1" t="s">
-        <v>2720</v>
+        <v>2718</v>
       </c>
       <c r="CB211" s="1" t="s">
         <v>123</v>
@@ -50093,10 +50027,10 @@
         <v>102</v>
       </c>
       <c r="CD211" s="1" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="CF211" s="1" t="s">
-        <v>2719</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="212" spans="1:88" x14ac:dyDescent="0.25">
@@ -50113,7 +50047,7 @@
         <v>1433</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>93</v>
@@ -50125,16 +50059,16 @@
         <v>95</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>2721</v>
+        <v>2719</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>2722</v>
+        <v>2720</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>111</v>
@@ -50203,7 +50137,7 @@
         <v>0</v>
       </c>
       <c r="CA212" s="1" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
       <c r="CB212" s="1" t="s">
         <v>123</v>
@@ -50212,10 +50146,10 @@
         <v>102</v>
       </c>
       <c r="CD212" s="1" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="CF212" s="1" t="s">
-        <v>2722</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="213" spans="1:88" x14ac:dyDescent="0.25">
@@ -50232,7 +50166,7 @@
         <v>185</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>2716</v>
+        <v>2714</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>93</v>
@@ -50244,16 +50178,16 @@
         <v>95</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>2717</v>
+        <v>2715</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>2723</v>
+        <v>2721</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>2724</v>
+        <v>2722</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>111</v>
@@ -50322,7 +50256,7 @@
         <v>0</v>
       </c>
       <c r="CA213" s="1" t="s">
-        <v>2720</v>
+        <v>2718</v>
       </c>
       <c r="CB213" s="1" t="s">
         <v>123</v>
@@ -50331,10 +50265,10 @@
         <v>102</v>
       </c>
       <c r="CD213" s="1" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="CF213" s="1" t="s">
-        <v>2724</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="214" spans="1:88" x14ac:dyDescent="0.25">
@@ -50369,10 +50303,10 @@
         <v>97</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>2725</v>
+        <v>2723</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>2726</v>
+        <v>2724</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>111</v>
@@ -50450,10 +50384,10 @@
         <v>102</v>
       </c>
       <c r="CD214" s="1" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="CF214" s="1" t="s">
-        <v>2726</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="215" spans="1:88" x14ac:dyDescent="0.25">
@@ -50488,13 +50422,13 @@
         <v>97</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2725</v>
+      </c>
+      <c r="L215" s="1" t="s">
+        <v>2726</v>
+      </c>
+      <c r="N215" s="1" t="s">
         <v>2727</v>
-      </c>
-      <c r="L215" s="1" t="s">
-        <v>2728</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2729</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>101</v>
@@ -50523,12 +50457,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2692</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>107</v>
       </c>
@@ -50581,13 +50510,13 @@
         <v>23</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2730</v>
+        <v>2728</v>
       </c>
       <c r="BG215" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH215" s="1" t="s">
-        <v>2731</v>
+        <v>2729</v>
       </c>
       <c r="BI215" s="1" t="s">
         <v>377</v>
@@ -50602,13 +50531,13 @@
         <v>103</v>
       </c>
       <c r="BS215" s="1" t="s">
-        <v>2732</v>
+        <v>2730</v>
       </c>
       <c r="BT215" s="3">
         <v>36306</v>
       </c>
       <c r="BU215" s="1" t="s">
-        <v>2733</v>
+        <v>2731</v>
       </c>
       <c r="BV215" s="1" t="s">
         <v>121</v>
@@ -50626,16 +50555,16 @@
         <v>102</v>
       </c>
       <c r="CD215" s="1" t="s">
+        <v>2732</v>
+      </c>
+      <c r="CE215" s="1" t="s">
+        <v>2733</v>
+      </c>
+      <c r="CF215" s="1" t="s">
         <v>2734</v>
       </c>
-      <c r="CE215" s="1" t="s">
+      <c r="CH215" s="1" t="s">
         <v>2735</v>
-      </c>
-      <c r="CF215" s="1" t="s">
-        <v>2736</v>
-      </c>
-      <c r="CH215" s="1" t="s">
-        <v>2737</v>
       </c>
       <c r="CI215" s="1" t="s">
         <v>384</v>
@@ -50676,13 +50605,13 @@
         <v>97</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2736</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>2737</v>
+      </c>
+      <c r="N216" s="1" t="s">
         <v>2738</v>
-      </c>
-      <c r="L216" s="1" t="s">
-        <v>2739</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2740</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>101</v>
@@ -50711,12 +50640,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2692</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>107</v>
       </c>
@@ -50772,13 +50696,13 @@
         <v>23</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2741</v>
+        <v>2739</v>
       </c>
       <c r="BG216" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2742</v>
+        <v>2740</v>
       </c>
       <c r="BI216" s="1" t="s">
         <v>838</v>
@@ -50790,7 +50714,7 @@
         <v>106</v>
       </c>
       <c r="BU216" s="1" t="s">
-        <v>2743</v>
+        <v>2741</v>
       </c>
       <c r="BV216" s="1" t="s">
         <v>121</v>
@@ -50808,16 +50732,16 @@
         <v>102</v>
       </c>
       <c r="CD216" s="1" t="s">
-        <v>2744</v>
+        <v>2742</v>
       </c>
       <c r="CE216" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CF216" s="1" t="s">
-        <v>2745</v>
+        <v>2743</v>
       </c>
       <c r="CH216" s="1" t="s">
-        <v>2746</v>
+        <v>2744</v>
       </c>
       <c r="CI216" s="1" t="s">
         <v>843</v>
@@ -50858,13 +50782,13 @@
         <v>97</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2745</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>2746</v>
+      </c>
+      <c r="N217" s="1" t="s">
         <v>2747</v>
-      </c>
-      <c r="L217" s="1" t="s">
-        <v>2748</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2749</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>101</v>
@@ -50896,12 +50820,7 @@
       <c r="AB217" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC217" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2692</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>107</v>
       </c>
@@ -50954,13 +50873,13 @@
         <v>23</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2750</v>
+        <v>2748</v>
       </c>
       <c r="BG217" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2751</v>
+        <v>2749</v>
       </c>
       <c r="BI217" s="1" t="s">
         <v>1848</v>
@@ -50975,13 +50894,13 @@
         <v>103</v>
       </c>
       <c r="BS217" s="1" t="s">
-        <v>2752</v>
+        <v>2750</v>
       </c>
       <c r="BT217" s="3">
         <v>38234</v>
       </c>
       <c r="BU217" s="1" t="s">
-        <v>2753</v>
+        <v>2751</v>
       </c>
       <c r="BV217" s="1" t="s">
         <v>121</v>
@@ -50999,16 +50918,16 @@
         <v>102</v>
       </c>
       <c r="CD217" s="1" t="s">
-        <v>2754</v>
+        <v>2752</v>
       </c>
       <c r="CE217" s="1" t="s">
         <v>1011</v>
       </c>
       <c r="CF217" s="1" t="s">
-        <v>2755</v>
+        <v>2753</v>
       </c>
       <c r="CH217" s="1" t="s">
-        <v>2756</v>
+        <v>2754</v>
       </c>
       <c r="CI217" s="1" t="s">
         <v>1852</v>
@@ -51049,13 +50968,13 @@
         <v>97</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2755</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>2756</v>
+      </c>
+      <c r="N218" s="1" t="s">
         <v>2757</v>
-      </c>
-      <c r="L218" s="1" t="s">
-        <v>2758</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2759</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>101</v>
@@ -51084,12 +51003,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2692</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>107</v>
       </c>
@@ -51145,16 +51059,16 @@
         <v>23</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2760</v>
+        <v>2758</v>
       </c>
       <c r="BG218" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2761</v>
+        <v>2759</v>
       </c>
       <c r="BI218" s="1" t="s">
-        <v>2762</v>
+        <v>2760</v>
       </c>
       <c r="BN218" s="1" t="s">
         <v>117</v>
@@ -51163,7 +51077,7 @@
         <v>106</v>
       </c>
       <c r="BU218" s="1" t="s">
-        <v>2763</v>
+        <v>2761</v>
       </c>
       <c r="BV218" s="1" t="s">
         <v>121</v>
@@ -51181,19 +51095,19 @@
         <v>102</v>
       </c>
       <c r="CD218" s="1" t="s">
+        <v>2762</v>
+      </c>
+      <c r="CE218" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="CF218" s="1" t="s">
         <v>2764</v>
       </c>
-      <c r="CE218" s="1" t="s">
+      <c r="CH218" s="1" t="s">
         <v>2765</v>
       </c>
-      <c r="CF218" s="1" t="s">
+      <c r="CI218" s="1" t="s">
         <v>2766</v>
-      </c>
-      <c r="CH218" s="1" t="s">
-        <v>2767</v>
-      </c>
-      <c r="CI218" s="1" t="s">
-        <v>2768</v>
       </c>
       <c r="CJ218" s="1" t="s">
         <v>129</v>
@@ -51231,13 +51145,13 @@
         <v>97</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2767</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>2768</v>
+      </c>
+      <c r="N219" s="1" t="s">
         <v>2769</v>
-      </c>
-      <c r="L219" s="1" t="s">
-        <v>2770</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2771</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>101</v>
@@ -51266,12 +51180,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2692</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>107</v>
       </c>
@@ -51324,16 +51233,16 @@
         <v>23</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2772</v>
+        <v>2770</v>
       </c>
       <c r="BG219" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2773</v>
+        <v>2771</v>
       </c>
       <c r="BI219" s="1" t="s">
-        <v>2774</v>
+        <v>2772</v>
       </c>
       <c r="BN219" s="1" t="s">
         <v>117</v>
@@ -51345,13 +51254,13 @@
         <v>229</v>
       </c>
       <c r="BS219" s="1" t="s">
-        <v>2775</v>
+        <v>2773</v>
       </c>
       <c r="BT219" s="3">
         <v>37069</v>
       </c>
       <c r="BU219" s="1" t="s">
-        <v>2776</v>
+        <v>2774</v>
       </c>
       <c r="BV219" s="1" t="s">
         <v>121</v>
@@ -51372,16 +51281,16 @@
         <v>753</v>
       </c>
       <c r="CE219" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="CF219" s="1" t="s">
+        <v>2776</v>
+      </c>
+      <c r="CH219" s="1" t="s">
         <v>2777</v>
       </c>
-      <c r="CF219" s="1" t="s">
+      <c r="CI219" s="1" t="s">
         <v>2778</v>
-      </c>
-      <c r="CH219" s="1" t="s">
-        <v>2779</v>
-      </c>
-      <c r="CI219" s="1" t="s">
-        <v>2780</v>
       </c>
       <c r="CJ219" s="1" t="s">
         <v>129</v>
@@ -51419,13 +51328,13 @@
         <v>97</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2779</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>2780</v>
+      </c>
+      <c r="N220" s="1" t="s">
         <v>2781</v>
-      </c>
-      <c r="L220" s="1" t="s">
-        <v>2782</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2783</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>101</v>
@@ -51454,12 +51363,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2692</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>107</v>
       </c>
@@ -51515,13 +51419,13 @@
         <v>23</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2784</v>
+        <v>2782</v>
       </c>
       <c r="BG220" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2785</v>
+        <v>2783</v>
       </c>
       <c r="BI220" s="1" t="s">
         <v>935</v>
@@ -51533,7 +51437,7 @@
         <v>106</v>
       </c>
       <c r="BU220" s="1" t="s">
-        <v>2786</v>
+        <v>2784</v>
       </c>
       <c r="BV220" s="1" t="s">
         <v>121</v>
@@ -51551,16 +51455,16 @@
         <v>102</v>
       </c>
       <c r="CD220" s="1" t="s">
+        <v>2785</v>
+      </c>
+      <c r="CE220" s="1" t="s">
+        <v>2786</v>
+      </c>
+      <c r="CF220" s="1" t="s">
         <v>2787</v>
       </c>
-      <c r="CE220" s="1" t="s">
+      <c r="CH220" s="1" t="s">
         <v>2788</v>
-      </c>
-      <c r="CF220" s="1" t="s">
-        <v>2789</v>
-      </c>
-      <c r="CH220" s="1" t="s">
-        <v>2790</v>
       </c>
       <c r="CI220" s="1" t="s">
         <v>941</v>
@@ -51601,13 +51505,13 @@
         <v>97</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2789</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>2790</v>
+      </c>
+      <c r="N221" s="1" t="s">
         <v>2791</v>
-      </c>
-      <c r="L221" s="1" t="s">
-        <v>2792</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2793</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>101</v>
@@ -51636,12 +51540,7 @@
       <c r="AA221" s="1">
         <v>0</v>
       </c>
-      <c r="AC221" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD221" s="1" t="s">
-        <v>2794</v>
-      </c>
+      <c r="AC221" s="3"/>
       <c r="AF221" s="1" t="s">
         <v>107</v>
       </c>
@@ -51688,7 +51587,7 @@
         <v>102</v>
       </c>
       <c r="AZ221" s="1" t="s">
-        <v>2795</v>
+        <v>2792</v>
       </c>
       <c r="BB221" s="1">
         <v>1</v>
@@ -51697,16 +51596,16 @@
         <v>23</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>2796</v>
+        <v>2793</v>
       </c>
       <c r="BG221" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2797</v>
+        <v>2794</v>
       </c>
       <c r="BI221" s="1" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="BN221" s="1" t="s">
         <v>117</v>
@@ -51718,13 +51617,13 @@
         <v>229</v>
       </c>
       <c r="BS221" s="1" t="s">
-        <v>2799</v>
+        <v>2796</v>
       </c>
       <c r="BT221" s="3">
         <v>35125</v>
       </c>
       <c r="BU221" s="1" t="s">
-        <v>2800</v>
+        <v>2797</v>
       </c>
       <c r="BV221" s="1" t="s">
         <v>121</v>
@@ -51742,19 +51641,19 @@
         <v>102</v>
       </c>
       <c r="CD221" s="1" t="s">
-        <v>2801</v>
+        <v>2798</v>
       </c>
       <c r="CE221" s="1" t="s">
         <v>124</v>
       </c>
       <c r="CF221" s="1" t="s">
-        <v>2802</v>
+        <v>2799</v>
       </c>
       <c r="CH221" s="1" t="s">
-        <v>2803</v>
+        <v>2800</v>
       </c>
       <c r="CI221" s="1" t="s">
-        <v>2804</v>
+        <v>2801</v>
       </c>
       <c r="CJ221" s="1" t="s">
         <v>129</v>
@@ -51792,13 +51691,13 @@
         <v>97</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>2805</v>
+        <v>2802</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>2806</v>
+        <v>2803</v>
       </c>
       <c r="N222" s="1" t="s">
-        <v>2807</v>
+        <v>2804</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>101</v>
@@ -51834,7 +51733,7 @@
         <v>107</v>
       </c>
       <c r="AG222" s="1" t="s">
-        <v>2808</v>
+        <v>2805</v>
       </c>
       <c r="AH222" s="1" t="s">
         <v>2147</v>
@@ -51885,7 +51784,7 @@
         <v>23</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="BG222" s="1" t="s">
         <v>114</v>
@@ -51894,7 +51793,7 @@
         <v>117</v>
       </c>
       <c r="BU222" s="1" t="s">
-        <v>2810</v>
+        <v>2807</v>
       </c>
       <c r="BV222" s="1" t="s">
         <v>121</v>
@@ -51912,13 +51811,13 @@
         <v>102</v>
       </c>
       <c r="CD222" s="1" t="s">
-        <v>2811</v>
+        <v>2808</v>
       </c>
       <c r="CE222" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="CF222" s="1" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="CH222" s="1" t="s">
         <v>129</v>
@@ -51962,13 +51861,13 @@
         <v>97</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>2815</v>
+        <v>2812</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>2816</v>
+        <v>2813</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>101</v>
@@ -52055,16 +51954,16 @@
         <v>23</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>2817</v>
+        <v>2814</v>
       </c>
       <c r="BG223" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2818</v>
+        <v>2815</v>
       </c>
       <c r="BI223" s="1" t="s">
-        <v>2819</v>
+        <v>2816</v>
       </c>
       <c r="BN223" s="1" t="s">
         <v>117</v>
@@ -52073,7 +51972,7 @@
         <v>106</v>
       </c>
       <c r="BU223" s="1" t="s">
-        <v>2820</v>
+        <v>2817</v>
       </c>
       <c r="BV223" s="1" t="s">
         <v>121</v>
@@ -52094,16 +51993,16 @@
         <v>334</v>
       </c>
       <c r="CE223" s="1" t="s">
+        <v>2818</v>
+      </c>
+      <c r="CF223" s="1" t="s">
+        <v>2819</v>
+      </c>
+      <c r="CH223" s="1" t="s">
+        <v>2820</v>
+      </c>
+      <c r="CI223" s="1" t="s">
         <v>2821</v>
-      </c>
-      <c r="CF223" s="1" t="s">
-        <v>2822</v>
-      </c>
-      <c r="CH223" s="1" t="s">
-        <v>2823</v>
-      </c>
-      <c r="CI223" s="1" t="s">
-        <v>2824</v>
       </c>
       <c r="CJ223" s="1" t="s">
         <v>129</v>
@@ -52141,13 +52040,13 @@
         <v>97</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>2825</v>
+        <v>2822</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>2827</v>
+        <v>2824</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>101</v>
@@ -52231,16 +52130,16 @@
         <v>23</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>2828</v>
+        <v>2825</v>
       </c>
       <c r="BG224" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2829</v>
+        <v>2826</v>
       </c>
       <c r="BI224" s="1" t="s">
-        <v>2830</v>
+        <v>2827</v>
       </c>
       <c r="BN224" s="1" t="s">
         <v>117</v>
@@ -52252,13 +52151,13 @@
         <v>229</v>
       </c>
       <c r="BS224" s="1" t="s">
-        <v>2831</v>
+        <v>2828</v>
       </c>
       <c r="BT224" s="3">
         <v>34307</v>
       </c>
       <c r="BU224" s="1" t="s">
-        <v>2832</v>
+        <v>2829</v>
       </c>
       <c r="BV224" s="1" t="s">
         <v>121</v>
@@ -52276,19 +52175,19 @@
         <v>102</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>2833</v>
+        <v>2830</v>
       </c>
       <c r="CE224" s="1" t="s">
         <v>420</v>
       </c>
       <c r="CF224" s="1" t="s">
-        <v>2834</v>
+        <v>2831</v>
       </c>
       <c r="CH224" s="1" t="s">
-        <v>2835</v>
+        <v>2832</v>
       </c>
       <c r="CI224" s="1" t="s">
-        <v>2836</v>
+        <v>2833</v>
       </c>
       <c r="CJ224" s="1" t="s">
         <v>129</v>
@@ -52326,16 +52225,16 @@
         <v>97</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>2837</v>
+        <v>2834</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="M225" s="1" t="s">
         <v>103</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>2839</v>
+        <v>2836</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>101</v>
@@ -52425,13 +52324,13 @@
         <v>23</v>
       </c>
       <c r="BD225" s="1" t="s">
-        <v>2840</v>
+        <v>2837</v>
       </c>
       <c r="BG225" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2841</v>
+        <v>2838</v>
       </c>
       <c r="BN225" s="1" t="s">
         <v>117</v>
@@ -52440,7 +52339,7 @@
         <v>106</v>
       </c>
       <c r="BU225" s="1" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="BV225" s="1" t="s">
         <v>121</v>
@@ -52470,10 +52369,10 @@
         <v>1230</v>
       </c>
       <c r="CF225" s="1" t="s">
-        <v>2843</v>
+        <v>2840</v>
       </c>
       <c r="CH225" s="1" t="s">
-        <v>2844</v>
+        <v>2841</v>
       </c>
       <c r="CI225" s="1" t="s">
         <v>129</v>
@@ -52514,13 +52413,13 @@
         <v>97</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>2845</v>
+        <v>2842</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
       <c r="N226" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>101</v>
@@ -52607,13 +52506,13 @@
         <v>23</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>2848</v>
+        <v>2845</v>
       </c>
       <c r="BG226" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2849</v>
+        <v>2846</v>
       </c>
       <c r="BN226" s="1" t="s">
         <v>117</v>
@@ -52628,13 +52527,13 @@
         <v>160</v>
       </c>
       <c r="BS226" s="1" t="s">
-        <v>2850</v>
+        <v>2847</v>
       </c>
       <c r="BT226" s="3">
         <v>5347</v>
       </c>
       <c r="BU226" s="1" t="s">
-        <v>2851</v>
+        <v>2848</v>
       </c>
       <c r="BV226" s="1" t="s">
         <v>121</v>
@@ -52658,16 +52557,16 @@
         <v>102</v>
       </c>
       <c r="CD226" s="1" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="CE226" s="1" t="s">
         <v>448</v>
       </c>
       <c r="CF226" s="1" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
       <c r="CH226" s="1" t="s">
-        <v>2854</v>
+        <v>2851</v>
       </c>
       <c r="CI226" s="1" t="s">
         <v>129</v>
@@ -52708,10 +52607,10 @@
         <v>97</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>2855</v>
+        <v>2852</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>2856</v>
+        <v>2853</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>101</v>
@@ -52789,7 +52688,7 @@
         <v>22</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2857</v>
+        <v>2854</v>
       </c>
       <c r="BN227" s="1" t="s">
         <v>117</v>
@@ -52819,7 +52718,7 @@
         <v>102</v>
       </c>
       <c r="CD227" s="1" t="s">
-        <v>2855</v>
+        <v>2852</v>
       </c>
       <c r="CH227" s="1" t="s">
         <v>129</v>
@@ -52863,10 +52762,10 @@
         <v>97</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>2858</v>
+        <v>2855</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>2806</v>
+        <v>2803</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>101</v>
@@ -52896,10 +52795,10 @@
         <v>107</v>
       </c>
       <c r="AG228" s="1" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="AH228" s="1" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="AJ228" s="1" t="s">
         <v>110</v>
@@ -52947,7 +52846,7 @@
         <v>21</v>
       </c>
       <c r="BD228" s="1" t="s">
-        <v>2860</v>
+        <v>2857</v>
       </c>
       <c r="BN228" s="1" t="s">
         <v>117</v>
@@ -52977,7 +52876,7 @@
         <v>93</v>
       </c>
       <c r="CD228" s="1" t="s">
-        <v>2858</v>
+        <v>2855</v>
       </c>
       <c r="CH228" s="1" t="s">
         <v>129</v>
@@ -53021,10 +52920,10 @@
         <v>97</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>2862</v>
+        <v>2859</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>101</v>
@@ -53054,10 +52953,10 @@
         <v>107</v>
       </c>
       <c r="AG229" s="1" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="AH229" s="1" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="AJ229" s="1" t="s">
         <v>110</v>
@@ -53105,7 +53004,7 @@
         <v>21</v>
       </c>
       <c r="BD229" s="1" t="s">
-        <v>2863</v>
+        <v>2860</v>
       </c>
       <c r="BN229" s="1" t="s">
         <v>117</v>
@@ -53132,7 +53031,7 @@
         <v>93</v>
       </c>
       <c r="CD229" s="1" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
       <c r="CH229" s="1" t="s">
         <v>129</v>
@@ -53176,13 +53075,13 @@
         <v>97</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>2865</v>
+        <v>2862</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>101</v>
@@ -53272,7 +53171,7 @@
         <v>23</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>2867</v>
+        <v>2864</v>
       </c>
       <c r="BG230" s="1" t="s">
         <v>114</v>
@@ -53281,7 +53180,7 @@
         <v>117</v>
       </c>
       <c r="BU230" s="1" t="s">
-        <v>2868</v>
+        <v>2865</v>
       </c>
       <c r="BV230" s="1" t="s">
         <v>121</v>
@@ -53302,13 +53201,13 @@
         <v>102</v>
       </c>
       <c r="CD230" s="1" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="CE230" s="1" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="CF230" s="1" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="CH230" s="1" t="s">
         <v>129</v>
@@ -53352,13 +53251,13 @@
         <v>97</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>2872</v>
+        <v>2869</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>2873</v>
+        <v>2870</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>101</v>
@@ -53445,13 +53344,13 @@
         <v>23</v>
       </c>
       <c r="BD231" s="1" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="BG231" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH231" s="1" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
       <c r="BN231" s="1" t="s">
         <v>117</v>
@@ -53463,13 +53362,13 @@
         <v>118</v>
       </c>
       <c r="BS231" s="1" t="s">
-        <v>2877</v>
+        <v>2874</v>
       </c>
       <c r="BT231" s="3">
         <v>35278</v>
       </c>
       <c r="BU231" s="1" t="s">
-        <v>2878</v>
+        <v>2875</v>
       </c>
       <c r="BV231" s="1" t="s">
         <v>121</v>
@@ -53490,16 +53389,16 @@
         <v>102</v>
       </c>
       <c r="CD231" s="1" t="s">
+        <v>2876</v>
+      </c>
+      <c r="CE231" s="1" t="s">
+        <v>2877</v>
+      </c>
+      <c r="CF231" s="1" t="s">
+        <v>2878</v>
+      </c>
+      <c r="CH231" s="1" t="s">
         <v>2879</v>
-      </c>
-      <c r="CE231" s="1" t="s">
-        <v>2880</v>
-      </c>
-      <c r="CF231" s="1" t="s">
-        <v>2881</v>
-      </c>
-      <c r="CH231" s="1" t="s">
-        <v>2882</v>
       </c>
       <c r="CI231" s="1" t="s">
         <v>129</v>
@@ -53522,7 +53421,7 @@
         <v>185</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>93</v>
@@ -53534,16 +53433,16 @@
         <v>95</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>2862</v>
+        <v>2859</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>101</v>
@@ -53570,10 +53469,10 @@
         <v>107</v>
       </c>
       <c r="AG232" s="1" t="s">
-        <v>2885</v>
+        <v>2882</v>
       </c>
       <c r="AH232" s="1" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="AJ232" s="1" t="s">
         <v>110</v>
@@ -53621,7 +53520,7 @@
         <v>22</v>
       </c>
       <c r="BD232" s="1" t="s">
-        <v>2886</v>
+        <v>2883</v>
       </c>
       <c r="BN232" s="1" t="s">
         <v>117</v>
@@ -53636,7 +53535,7 @@
         <v>111</v>
       </c>
       <c r="CA232" s="1" t="s">
-        <v>2887</v>
+        <v>2884</v>
       </c>
       <c r="CB232" s="1" t="s">
         <v>123</v>
@@ -53645,7 +53544,7 @@
         <v>93</v>
       </c>
       <c r="CD232" s="1" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
       <c r="CH232" s="1" t="s">
         <v>129</v>
@@ -53689,13 +53588,13 @@
         <v>97</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="N233" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>101</v>
@@ -53785,19 +53684,19 @@
         <v>23</v>
       </c>
       <c r="BD233" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="BG233" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2892</v>
+        <v>2889</v>
       </c>
       <c r="BN233" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU233" s="1" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
       <c r="BV233" s="1" t="s">
         <v>121</v>
@@ -53818,16 +53717,16 @@
         <v>102</v>
       </c>
       <c r="CD233" s="1" t="s">
-        <v>2894</v>
+        <v>2891</v>
       </c>
       <c r="CE233" s="1" t="s">
         <v>449</v>
       </c>
       <c r="CF233" s="1" t="s">
-        <v>2895</v>
+        <v>2892</v>
       </c>
       <c r="CH233" s="1" t="s">
-        <v>2896</v>
+        <v>2893</v>
       </c>
       <c r="CI233" s="1" t="s">
         <v>129</v>
@@ -53868,10 +53767,10 @@
         <v>97</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>2897</v>
+        <v>2894</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>2898</v>
+        <v>2895</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>101</v>
@@ -53901,10 +53800,10 @@
         <v>107</v>
       </c>
       <c r="AG234" s="1" t="s">
-        <v>2885</v>
+        <v>2882</v>
       </c>
       <c r="AH234" s="1" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="AJ234" s="1" t="s">
         <v>110</v>
@@ -53949,7 +53848,7 @@
         <v>22</v>
       </c>
       <c r="BD234" s="1" t="s">
-        <v>2899</v>
+        <v>2896</v>
       </c>
       <c r="BN234" s="1" t="s">
         <v>117</v>
@@ -53976,7 +53875,7 @@
         <v>93</v>
       </c>
       <c r="CD234" s="1" t="s">
-        <v>2897</v>
+        <v>2894</v>
       </c>
       <c r="CH234" s="1" t="s">
         <v>129</v>
@@ -54020,16 +53919,16 @@
         <v>97</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>2901</v>
+        <v>2898</v>
       </c>
       <c r="M235" s="1" t="s">
         <v>103</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>2902</v>
+        <v>2899</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>101</v>
@@ -54113,16 +54012,16 @@
         <v>23</v>
       </c>
       <c r="BD235" s="1" t="s">
-        <v>2903</v>
+        <v>2900</v>
       </c>
       <c r="BG235" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="BI235" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="BN235" s="1" t="s">
         <v>117</v>
@@ -54131,13 +54030,13 @@
         <v>103</v>
       </c>
       <c r="BS235" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="BT235" s="3">
         <v>300</v>
       </c>
       <c r="BU235" s="1" t="s">
-        <v>2907</v>
+        <v>2904</v>
       </c>
       <c r="BV235" s="1" t="s">
         <v>121</v>
@@ -54158,19 +54057,19 @@
         <v>102</v>
       </c>
       <c r="CD235" s="1" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="CE235" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="CF235" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="CH235" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="CI235" s="1" t="s">
         <v>2908</v>
-      </c>
-      <c r="CF235" s="1" t="s">
-        <v>2909</v>
-      </c>
-      <c r="CH235" s="1" t="s">
-        <v>2910</v>
-      </c>
-      <c r="CI235" s="1" t="s">
-        <v>2911</v>
       </c>
       <c r="CJ235" s="1" t="s">
         <v>129</v>
@@ -54190,7 +54089,7 @@
         <v>185</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>93</v>
@@ -54202,22 +54101,22 @@
         <v>95</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K236" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="L236" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="M236" s="1" t="s">
+        <v>2913</v>
+      </c>
+      <c r="N236" s="1" t="s">
         <v>2914</v>
-      </c>
-      <c r="L236" s="1" t="s">
-        <v>2915</v>
-      </c>
-      <c r="M236" s="1" t="s">
-        <v>2916</v>
-      </c>
-      <c r="N236" s="1" t="s">
-        <v>2917</v>
       </c>
       <c r="Q236" s="3">
         <v>17060</v>
@@ -54250,13 +54149,13 @@
         <v>42628</v>
       </c>
       <c r="AD236" s="1" t="s">
-        <v>2918</v>
+        <v>2915</v>
       </c>
       <c r="AF236" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG236" s="1" t="s">
-        <v>2919</v>
+        <v>2916</v>
       </c>
       <c r="AH236" s="1" t="s">
         <v>136</v>
@@ -54301,22 +54200,22 @@
         <v>102</v>
       </c>
       <c r="AZ236" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="BB236" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC236" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD236" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="BH236" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="BI236" s="1" t="s">
         <v>2920</v>
-      </c>
-      <c r="BB236" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC236" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD236" s="1" t="s">
-        <v>2921</v>
-      </c>
-      <c r="BH236" s="1" t="s">
-        <v>2922</v>
-      </c>
-      <c r="BI236" s="1" t="s">
-        <v>2923</v>
       </c>
       <c r="BN236" s="1" t="s">
         <v>117</v>
@@ -54325,7 +54224,7 @@
         <v>106</v>
       </c>
       <c r="BU236" s="1" t="s">
-        <v>2924</v>
+        <v>2921</v>
       </c>
       <c r="BV236" s="1" t="s">
         <v>121</v>
@@ -54349,13 +54248,13 @@
         <v>125</v>
       </c>
       <c r="CF236" s="1" t="s">
-        <v>2925</v>
+        <v>2922</v>
       </c>
       <c r="CH236" s="1" t="s">
-        <v>2926</v>
+        <v>2923</v>
       </c>
       <c r="CI236" s="1" t="s">
-        <v>2927</v>
+        <v>2924</v>
       </c>
       <c r="CJ236" s="1" t="s">
         <v>129</v>
@@ -54369,13 +54268,13 @@
         <v>89</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>2928</v>
+        <v>2925</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>102</v>
@@ -54387,22 +54286,22 @@
         <v>95</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="M237" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="Q237" s="3">
         <v>26864</v>
@@ -54435,7 +54334,7 @@
         <v>42735</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>107</v>
@@ -54489,10 +54388,10 @@
         <v>0</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="BN237" s="1" t="s">
         <v>117</v>
@@ -54504,13 +54403,13 @@
         <v>229</v>
       </c>
       <c r="BS237" s="1" t="s">
-        <v>2937</v>
+        <v>2934</v>
       </c>
       <c r="BT237" s="3">
         <v>102</v>
       </c>
       <c r="BU237" s="1" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
       <c r="BV237" s="1" t="s">
         <v>121</v>
@@ -54522,7 +54421,7 @@
         <v>111</v>
       </c>
       <c r="CA237" s="1" t="s">
-        <v>2939</v>
+        <v>2936</v>
       </c>
       <c r="CB237" s="1" t="s">
         <v>123</v>
@@ -54531,16 +54430,16 @@
         <v>102</v>
       </c>
       <c r="CD237" s="1" t="s">
-        <v>2940</v>
+        <v>2937</v>
       </c>
       <c r="CE237" s="1" t="s">
-        <v>2941</v>
+        <v>2938</v>
       </c>
       <c r="CF237" s="1" t="s">
-        <v>2942</v>
+        <v>2939</v>
       </c>
       <c r="CH237" s="1" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="CI237" s="1" t="s">
         <v>129</v>
@@ -54581,16 +54480,16 @@
         <v>97</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>2943</v>
+        <v>2940</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>2944</v>
+        <v>2941</v>
       </c>
       <c r="M238" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>2945</v>
+        <v>2942</v>
       </c>
       <c r="Q238" s="3">
         <v>25379</v>
@@ -54620,7 +54519,7 @@
         <v>39800</v>
       </c>
       <c r="AD238" s="1" t="s">
-        <v>2946</v>
+        <v>2943</v>
       </c>
       <c r="AF238" s="1" t="s">
         <v>243</v>
@@ -54674,10 +54573,10 @@
         <v>0</v>
       </c>
       <c r="BD238" s="1" t="s">
-        <v>2947</v>
+        <v>2944</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="BN238" s="1" t="s">
         <v>117</v>
@@ -54689,13 +54588,13 @@
         <v>1640</v>
       </c>
       <c r="BS238" s="1" t="s">
-        <v>2949</v>
+        <v>2946</v>
       </c>
       <c r="BT238" s="3">
         <v>35915</v>
       </c>
       <c r="BU238" s="1" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="BV238" s="1" t="s">
         <v>121</v>
@@ -54725,10 +54624,10 @@
         <v>637</v>
       </c>
       <c r="CF238" s="1" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="CH238" s="1" t="s">
-        <v>2926</v>
+        <v>2923</v>
       </c>
       <c r="CI238" s="1" t="s">
         <v>129</v>
@@ -54751,7 +54650,7 @@
         <v>91</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>102</v>
@@ -54763,22 +54662,22 @@
         <v>95</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="M239" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="Q239" s="3">
         <v>17470</v>
@@ -54808,7 +54707,7 @@
         <v>43100</v>
       </c>
       <c r="AD239" s="1" t="s">
-        <v>2918</v>
+        <v>2915</v>
       </c>
       <c r="AF239" s="1" t="s">
         <v>107</v>
@@ -54865,10 +54764,10 @@
         <v>0</v>
       </c>
       <c r="BD239" s="1" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="BN239" s="1" t="s">
         <v>117</v>
@@ -54877,7 +54776,7 @@
         <v>106</v>
       </c>
       <c r="BU239" s="1" t="s">
-        <v>2959</v>
+        <v>2956</v>
       </c>
       <c r="BV239" s="1" t="s">
         <v>121</v>
@@ -54901,16 +54800,16 @@
         <v>102</v>
       </c>
       <c r="CD239" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="CE239" s="1" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="CF239" s="1" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="CH239" s="1" t="s">
-        <v>2926</v>
+        <v>2923</v>
       </c>
       <c r="CI239" s="1" t="s">
         <v>129</v>
@@ -54933,7 +54832,7 @@
         <v>91</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>102</v>
@@ -54945,22 +54844,22 @@
         <v>95</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="M240" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="Q240" s="3">
         <v>23356</v>
@@ -54987,7 +54886,7 @@
         <v>43105</v>
       </c>
       <c r="AD240" s="1" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="AF240" s="1" t="s">
         <v>107</v>
@@ -55041,10 +54940,10 @@
         <v>0</v>
       </c>
       <c r="BD240" s="1" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="BN240" s="1" t="s">
         <v>117</v>
@@ -55056,13 +54955,13 @@
         <v>103</v>
       </c>
       <c r="BS240" s="1" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="BT240" s="3">
         <v>34412</v>
       </c>
       <c r="BU240" s="1" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="BV240" s="1" t="s">
         <v>121</v>
@@ -55071,7 +54970,7 @@
         <v>0</v>
       </c>
       <c r="CA240" s="1" t="s">
-        <v>2720</v>
+        <v>2718</v>
       </c>
       <c r="CB240" s="1" t="s">
         <v>123</v>
@@ -55080,16 +54979,16 @@
         <v>102</v>
       </c>
       <c r="CD240" s="1" t="s">
+        <v>2970</v>
+      </c>
+      <c r="CE240" s="1" t="s">
+        <v>2971</v>
+      </c>
+      <c r="CF240" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="CH240" s="1" t="s">
         <v>2973</v>
-      </c>
-      <c r="CE240" s="1" t="s">
-        <v>2974</v>
-      </c>
-      <c r="CF240" s="1" t="s">
-        <v>2975</v>
-      </c>
-      <c r="CH240" s="1" t="s">
-        <v>2976</v>
       </c>
       <c r="CI240" s="1" t="s">
         <v>129</v>
@@ -55112,7 +55011,7 @@
         <v>1433</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>93</v>
@@ -55124,22 +55023,22 @@
         <v>95</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>2710</v>
+        <v>2708</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="M241" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="Q241" s="3">
         <v>17726</v>
@@ -55175,7 +55074,7 @@
         <v>43312</v>
       </c>
       <c r="AD241" s="1" t="s">
-        <v>2918</v>
+        <v>2915</v>
       </c>
       <c r="AF241" s="1" t="s">
         <v>243</v>
@@ -55226,7 +55125,7 @@
         <v>102</v>
       </c>
       <c r="AZ241" s="1" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="BB241" s="1">
         <v>0</v>
@@ -55235,10 +55134,10 @@
         <v>0</v>
       </c>
       <c r="BD241" s="1" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="BH241" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="BN241" s="1" t="s">
         <v>117</v>
@@ -55247,7 +55146,7 @@
         <v>106</v>
       </c>
       <c r="BU241" s="1" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="BV241" s="1" t="s">
         <v>121</v>
@@ -55256,7 +55155,7 @@
         <v>0</v>
       </c>
       <c r="CA241" s="1" t="s">
-        <v>2713</v>
+        <v>2711</v>
       </c>
       <c r="CB241" s="1" t="s">
         <v>123</v>
@@ -55265,16 +55164,16 @@
         <v>102</v>
       </c>
       <c r="CD241" s="1" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="CE241" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="CF241" s="1" t="s">
         <v>899</v>
       </c>
       <c r="CH241" s="1" t="s">
-        <v>2926</v>
+        <v>2923</v>
       </c>
       <c r="CI241" s="1" t="s">
         <v>129</v>
@@ -55297,7 +55196,7 @@
         <v>1433</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>93</v>
@@ -55309,22 +55208,22 @@
         <v>95</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="M242" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="Q242" s="3">
         <v>17041</v>
@@ -55354,13 +55253,13 @@
         <v>42735</v>
       </c>
       <c r="AD242" s="1" t="s">
-        <v>2918</v>
+        <v>2915</v>
       </c>
       <c r="AF242" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG242" s="1" t="s">
-        <v>2808</v>
+        <v>2805</v>
       </c>
       <c r="AH242" s="1" t="s">
         <v>2147</v>
@@ -55411,7 +55310,7 @@
         <v>0</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="BN242" s="1" t="s">
         <v>117</v>
@@ -55420,7 +55319,7 @@
         <v>106</v>
       </c>
       <c r="BU242" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="BV242" s="1" t="s">
         <v>121</v>
@@ -55432,7 +55331,7 @@
         <v>111</v>
       </c>
       <c r="CA242" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="CB242" s="1" t="s">
         <v>123</v>
@@ -55441,13 +55340,13 @@
         <v>102</v>
       </c>
       <c r="CD242" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="CE242" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="CF242" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="CH242" s="1" t="s">
         <v>129</v>
@@ -55473,7 +55372,7 @@
         <v>1433</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>102</v>
@@ -55485,22 +55384,22 @@
         <v>95</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="M243" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="Q243" s="3">
         <v>30147</v>
@@ -55526,17 +55425,12 @@
       <c r="AA243" s="1">
         <v>0</v>
       </c>
-      <c r="AC243" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD243" s="1" t="s">
-        <v>2692</v>
-      </c>
+      <c r="AC243" s="3"/>
       <c r="AF243" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG243" s="1" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="AH243" s="1" t="s">
         <v>373</v>
@@ -55584,10 +55478,10 @@
         <v>0</v>
       </c>
       <c r="BD243" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="BN243" s="1" t="s">
         <v>117</v>
@@ -55599,13 +55493,13 @@
         <v>103</v>
       </c>
       <c r="BS243" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="BT243" s="3">
         <v>37124</v>
       </c>
       <c r="BU243" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="BV243" s="1" t="s">
         <v>121</v>
@@ -55614,7 +55508,7 @@
         <v>0</v>
       </c>
       <c r="CA243" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="CB243" s="1" t="s">
         <v>123</v>
@@ -55623,16 +55517,16 @@
         <v>102</v>
       </c>
       <c r="CD243" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="CE243" s="1" t="s">
         <v>1144</v>
       </c>
       <c r="CF243" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="CH243" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="CI243" s="1" t="s">
         <v>129</v>
@@ -55655,7 +55549,7 @@
         <v>91</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>102</v>
@@ -55667,22 +55561,22 @@
         <v>95</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>2862</v>
+        <v>2859</v>
       </c>
       <c r="M244" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="Q244" s="3">
         <v>17821</v>
@@ -55718,7 +55612,7 @@
         <v>43388</v>
       </c>
       <c r="AD244" s="1" t="s">
-        <v>2918</v>
+        <v>2915</v>
       </c>
       <c r="AF244" s="1" t="s">
         <v>107</v>
@@ -55769,7 +55663,7 @@
         <v>102</v>
       </c>
       <c r="AZ244" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="BB244" s="1">
         <v>0</v>
@@ -55778,7 +55672,7 @@
         <v>0</v>
       </c>
       <c r="BD244" s="1" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="BE244" s="1" t="s">
         <v>2165</v>
@@ -55787,7 +55681,7 @@
         <v>2166</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="BN244" s="1" t="s">
         <v>117</v>
@@ -55796,7 +55690,7 @@
         <v>106</v>
       </c>
       <c r="BU244" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="BV244" s="1" t="s">
         <v>121</v>
@@ -55805,7 +55699,7 @@
         <v>0</v>
       </c>
       <c r="CA244" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="CB244" s="1" t="s">
         <v>123</v>
@@ -55814,16 +55708,16 @@
         <v>102</v>
       </c>
       <c r="CD244" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="CE244" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="CF244" s="1" t="s">
         <v>488</v>
       </c>
       <c r="CH244" s="1" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="CI244" s="1" t="s">
         <v>129</v>
@@ -55864,16 +55758,16 @@
         <v>97</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>2943</v>
+        <v>2940</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="M245" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>2945</v>
+        <v>2942</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>101</v>
@@ -55906,7 +55800,7 @@
         <v>43980</v>
       </c>
       <c r="AD245" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="AF245" s="1" t="s">
         <v>107</v>
@@ -55960,10 +55854,10 @@
         <v>20</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>2947</v>
+        <v>2944</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="BN245" s="1" t="s">
         <v>117</v>
@@ -55975,13 +55869,13 @@
         <v>1640</v>
       </c>
       <c r="BS245" s="1" t="s">
-        <v>2949</v>
+        <v>2946</v>
       </c>
       <c r="BT245" s="3">
         <v>35915</v>
       </c>
       <c r="BU245" s="1" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="BV245" s="1" t="s">
         <v>121</v>
@@ -56005,7 +55899,7 @@
         <v>637</v>
       </c>
       <c r="CF245" s="1" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="CH245" s="1" t="s">
         <v>1842</v>
@@ -56043,22 +55937,22 @@
         <v>95</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="M246" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>101</v>
@@ -56094,7 +55988,7 @@
         <v>44135</v>
       </c>
       <c r="AD246" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="AF246" s="1" t="s">
         <v>107</v>
@@ -56151,10 +56045,10 @@
         <v>20</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="BN246" s="1" t="s">
         <v>117</v>
@@ -56163,7 +56057,7 @@
         <v>106</v>
       </c>
       <c r="BU246" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="BV246" s="1" t="s">
         <v>121</v>
@@ -56172,7 +56066,7 @@
         <v>0</v>
       </c>
       <c r="CA246" s="1" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="CB246" s="1" t="s">
         <v>123</v>
@@ -56184,10 +56078,10 @@
         <v>1262</v>
       </c>
       <c r="CE246" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="CF246" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="CH246" s="1" t="s">
         <v>1842</v>
@@ -56231,16 +56125,16 @@
         <v>97</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="M247" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>101</v>
@@ -56273,16 +56167,16 @@
         <v>43847</v>
       </c>
       <c r="AD247" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="AF247" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG247" s="1" t="s">
+        <v>2469</v>
+      </c>
+      <c r="AH247" s="1" t="s">
         <v>2470</v>
-      </c>
-      <c r="AH247" s="1" t="s">
-        <v>2471</v>
       </c>
       <c r="AJ247" s="1" t="s">
         <v>110</v>
@@ -56324,7 +56218,7 @@
         <v>102</v>
       </c>
       <c r="AZ247" s="1" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="BB247" s="1">
         <v>2</v>
@@ -56333,10 +56227,10 @@
         <v>21</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="BN247" s="1" t="s">
         <v>117</v>
@@ -56348,13 +56242,13 @@
         <v>118</v>
       </c>
       <c r="BS247" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="BT247" s="3">
         <v>34808</v>
       </c>
       <c r="BU247" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="BV247" s="1" t="s">
         <v>121</v>
@@ -56372,13 +56266,13 @@
         <v>102</v>
       </c>
       <c r="CD247" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="CF247" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="CH247" s="1" t="s">
         <v>1842</v>
@@ -56395,10 +56289,10 @@
         <v>88</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>1237</v>
@@ -56422,16 +56316,16 @@
         <v>92</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="M248" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>101</v>
@@ -56485,7 +56379,7 @@
         <v>0</v>
       </c>
       <c r="AN248" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="AO248" s="1">
         <v>0</v>
@@ -56515,7 +56409,7 @@
         <v>102</v>
       </c>
       <c r="AZ248" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="BB248" s="1">
         <v>2</v>
@@ -56524,13 +56418,13 @@
         <v>21</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="BN248" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU248" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="BV248" s="1" t="s">
         <v>121</v>
@@ -56548,13 +56442,13 @@
         <v>102</v>
       </c>
       <c r="CD248" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="CE248" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="CF248" s="1" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="CH248" s="1" t="s">
         <v>129</v>
@@ -56598,16 +56492,16 @@
         <v>97</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="M249" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>101</v>
@@ -56646,7 +56540,7 @@
         <v>44246</v>
       </c>
       <c r="AD249" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="AF249" s="1" t="s">
         <v>107</v>
@@ -56703,10 +56597,10 @@
         <v>21</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="BN249" s="1" t="s">
         <v>117</v>
@@ -56715,7 +56609,7 @@
         <v>106</v>
       </c>
       <c r="BU249" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="BV249" s="1" t="s">
         <v>121</v>
@@ -56739,13 +56633,13 @@
         <v>102</v>
       </c>
       <c r="CD249" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="CE249" s="1" t="s">
         <v>143</v>
       </c>
       <c r="CF249" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="CH249" s="1" t="s">
         <v>129</v>
@@ -56789,16 +56683,16 @@
         <v>97</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="M250" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>101</v>
@@ -56834,7 +56728,7 @@
         <v>44267</v>
       </c>
       <c r="AD250" s="1" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="AF250" s="1" t="s">
         <v>107</v>
@@ -56891,10 +56785,10 @@
         <v>21</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="BN250" s="1" t="s">
         <v>117</v>
@@ -56906,13 +56800,13 @@
         <v>118</v>
       </c>
       <c r="BS250" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="BT250" s="3">
         <v>35711</v>
       </c>
       <c r="BU250" s="1" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="BV250" s="1" t="s">
         <v>121</v>
@@ -56936,7 +56830,7 @@
         <v>381</v>
       </c>
       <c r="CF250" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="CH250" s="1" t="s">
         <v>129</v>
@@ -56980,16 +56874,16 @@
         <v>97</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="M251" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>101</v>
@@ -57025,16 +56919,16 @@
         <v>44255</v>
       </c>
       <c r="AD251" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="AF251" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG251" s="1" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="AH251" s="1" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="AJ251" s="1" t="s">
         <v>110</v>
@@ -57082,7 +56976,7 @@
         <v>21</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="BE251" s="1" t="s">
         <v>2165</v>
@@ -57091,7 +56985,7 @@
         <v>2166</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="BN251" s="1" t="s">
         <v>117</v>
@@ -57100,13 +56994,13 @@
         <v>229</v>
       </c>
       <c r="BS251" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="BT251" s="3">
         <v>2302</v>
       </c>
       <c r="BU251" s="1" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="BV251" s="1" t="s">
         <v>121</v>
@@ -57130,16 +57024,16 @@
         <v>93</v>
       </c>
       <c r="CD251" s="1" t="s">
+        <v>3078</v>
+      </c>
+      <c r="CE251" s="1" t="s">
+        <v>3079</v>
+      </c>
+      <c r="CF251" s="1" t="s">
+        <v>3080</v>
+      </c>
+      <c r="CH251" s="1" t="s">
         <v>3081</v>
-      </c>
-      <c r="CE251" s="1" t="s">
-        <v>3082</v>
-      </c>
-      <c r="CF251" s="1" t="s">
-        <v>3083</v>
-      </c>
-      <c r="CH251" s="1" t="s">
-        <v>3084</v>
       </c>
       <c r="CI251" s="1" t="s">
         <v>129</v>
@@ -57180,16 +57074,16 @@
         <v>97</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="M252" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>101</v>
@@ -57225,7 +57119,7 @@
         <v>44316</v>
       </c>
       <c r="AD252" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="AF252" s="1" t="s">
         <v>107</v>
@@ -57282,10 +57176,10 @@
         <v>21</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="BN252" s="1" t="s">
         <v>117</v>
@@ -57297,13 +57191,13 @@
         <v>229</v>
       </c>
       <c r="BS252" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="BT252" s="3">
         <v>35108</v>
       </c>
       <c r="BU252" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="BV252" s="1" t="s">
         <v>121</v>
@@ -57321,16 +57215,16 @@
         <v>102</v>
       </c>
       <c r="CD252" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="CE252" s="1" t="s">
         <v>1939</v>
       </c>
       <c r="CF252" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="CH252" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="CI252" s="1" t="s">
         <v>129</v>
@@ -57371,16 +57265,16 @@
         <v>97</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="M253" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>101</v>
@@ -57416,16 +57310,16 @@
         <v>44507</v>
       </c>
       <c r="AD253" s="1" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="AF253" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG253" s="1" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="AH253" s="1" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="AI253" s="1" t="s">
         <v>102</v>
@@ -57476,16 +57370,16 @@
         <v>21</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="BN253" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU253" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="BV253" s="1" t="s">
         <v>121</v>
@@ -57509,16 +57403,16 @@
         <v>93</v>
       </c>
       <c r="CD253" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="CE253" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="CF253" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="CH253" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="CI253" s="1" t="s">
         <v>129</v>
@@ -57553,22 +57447,22 @@
         <v>95</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>2901</v>
+        <v>2898</v>
       </c>
       <c r="M254" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>2902</v>
+        <v>2899</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>101</v>
@@ -57601,7 +57495,7 @@
         <v>44701</v>
       </c>
       <c r="AD254" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="AF254" s="1" t="s">
         <v>107</v>
@@ -57649,7 +57543,7 @@
         <v>102</v>
       </c>
       <c r="AZ254" s="1" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="BB254" s="1">
         <v>5</v>
@@ -57658,13 +57552,13 @@
         <v>22</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="BI254" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="BN254" s="1" t="s">
         <v>117</v>
@@ -57679,13 +57573,13 @@
         <v>160</v>
       </c>
       <c r="BS254" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="BT254" s="3">
         <v>36825</v>
       </c>
       <c r="BU254" s="1" t="s">
-        <v>2907</v>
+        <v>2904</v>
       </c>
       <c r="BV254" s="1" t="s">
         <v>121</v>
@@ -57700,7 +57594,7 @@
         <v>111</v>
       </c>
       <c r="CA254" s="1" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="CB254" s="1" t="s">
         <v>123</v>
@@ -57709,19 +57603,19 @@
         <v>102</v>
       </c>
       <c r="CD254" s="1" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="CE254" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="CF254" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="CH254" s="1" t="s">
-        <v>2926</v>
+        <v>2923</v>
       </c>
       <c r="CI254" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="CJ254" s="1" t="s">
         <v>129</v>
@@ -57753,22 +57647,22 @@
         <v>95</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="M255" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>101</v>
@@ -57801,7 +57695,7 @@
         <v>44733</v>
       </c>
       <c r="AD255" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="AF255" s="1" t="s">
         <v>107</v>
@@ -57858,10 +57752,10 @@
         <v>22</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="BN255" s="1" t="s">
         <v>117</v>
@@ -57873,13 +57767,13 @@
         <v>229</v>
       </c>
       <c r="BS255" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="BT255" s="3">
         <v>34412</v>
       </c>
       <c r="BU255" s="1" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="BV255" s="1" t="s">
         <v>121</v>
@@ -57900,13 +57794,13 @@
         <v>102</v>
       </c>
       <c r="CD255" s="1" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="CF255" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="CH255" s="1" t="s">
         <v>2294</v>
@@ -57944,22 +57838,22 @@
         <v>95</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="M256" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>101</v>
@@ -57992,7 +57886,7 @@
         <v>44561</v>
       </c>
       <c r="AD256" s="1" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="AF256" s="1" t="s">
         <v>107</v>
@@ -58049,7 +57943,7 @@
         <v>22</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="BN256" s="1" t="s">
         <v>117</v>
@@ -58058,13 +57952,13 @@
         <v>229</v>
       </c>
       <c r="BS256" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="BT256" s="3">
         <v>5480</v>
       </c>
       <c r="BU256" s="1" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="BV256" s="1" t="s">
         <v>121</v>
@@ -58091,10 +57985,10 @@
         <v>461</v>
       </c>
       <c r="CE256" s="1" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="CF256" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="CH256" s="1" t="s">
         <v>129</v>
@@ -58138,16 +58032,16 @@
         <v>97</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="M257" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>101</v>
@@ -58183,7 +58077,7 @@
         <v>44788</v>
       </c>
       <c r="AD257" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="AF257" s="1" t="s">
         <v>107</v>
@@ -58243,10 +58137,10 @@
         <v>22</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="BN257" s="1" t="s">
         <v>117</v>
@@ -58261,13 +58155,13 @@
         <v>160</v>
       </c>
       <c r="BS257" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="BT257" s="3">
         <v>35259</v>
       </c>
       <c r="BU257" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="BV257" s="1" t="s">
         <v>121</v>
@@ -58285,13 +58179,13 @@
         <v>102</v>
       </c>
       <c r="CD257" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="CE257" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="CF257" s="1" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="CH257" s="1" t="s">
         <v>129</v>
@@ -58335,16 +58229,16 @@
         <v>97</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="M258" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>101</v>
@@ -58377,16 +58271,16 @@
         <v>44833</v>
       </c>
       <c r="AD258" s="1" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="AF258" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG258" s="1" t="s">
-        <v>2885</v>
+        <v>2882</v>
       </c>
       <c r="AH258" s="1" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="AI258" s="1" t="s">
         <v>102</v>
@@ -58437,16 +58331,16 @@
         <v>22</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="BN258" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU258" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="BV258" s="1" t="s">
         <v>121</v>
@@ -58458,7 +58352,7 @@
         <v>111</v>
       </c>
       <c r="CA258" s="1" t="s">
-        <v>2887</v>
+        <v>2884</v>
       </c>
       <c r="CB258" s="1" t="s">
         <v>123</v>
@@ -58467,16 +58361,16 @@
         <v>93</v>
       </c>
       <c r="CD258" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="CE258" s="1" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="CF258" s="1" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="CH258" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="CI258" s="1" t="s">
         <v>129</v>
@@ -58517,16 +58411,16 @@
         <v>97</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="M259" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>101</v>
@@ -58562,16 +58456,16 @@
         <v>44895</v>
       </c>
       <c r="AD259" s="1" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="AF259" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG259" s="1" t="s">
-        <v>2885</v>
+        <v>2882</v>
       </c>
       <c r="AH259" s="1" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="AJ259" s="1" t="s">
         <v>110</v>
@@ -58616,10 +58510,10 @@
         <v>22</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>2899</v>
+        <v>2896</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="BN259" s="1" t="s">
         <v>117</v>
@@ -58628,13 +58522,13 @@
         <v>118</v>
       </c>
       <c r="BS259" s="1" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="BT259" s="3">
         <v>34170</v>
       </c>
       <c r="BU259" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="BV259" s="1" t="s">
         <v>121</v>
@@ -58655,16 +58549,16 @@
         <v>93</v>
       </c>
       <c r="CD259" s="1" t="s">
-        <v>2734</v>
+        <v>2732</v>
       </c>
       <c r="CE259" s="1" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="CF259" s="1" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="CH259" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="CI259" s="1" t="s">
         <v>129</v>
@@ -58678,10 +58572,10 @@
         <v>88</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>1237</v>
@@ -58696,7 +58590,7 @@
         <v>94</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="I260" s="1" t="s">
         <v>1237</v>
@@ -58705,13 +58599,13 @@
         <v>92</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>101</v>
@@ -58765,7 +58659,7 @@
         <v>0</v>
       </c>
       <c r="AN260" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="AO260" s="1">
         <v>0</v>
@@ -58798,19 +58692,19 @@
         <v>23</v>
       </c>
       <c r="BD260" s="1" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="BG260" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="BN260" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU260" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="BV260" s="1" t="s">
         <v>121</v>
@@ -58828,16 +58722,16 @@
         <v>102</v>
       </c>
       <c r="CD260" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="CE260" s="1" t="s">
         <v>311</v>
       </c>
       <c r="CF260" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="CH260" s="1" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="CI260" s="1" t="s">
         <v>129</v>
@@ -58851,10 +58745,10 @@
         <v>88</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>1237</v>
@@ -58869,7 +58763,7 @@
         <v>94</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="I261" s="1" t="s">
         <v>1237</v>
@@ -58878,13 +58772,13 @@
         <v>92</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>101</v>
@@ -58935,7 +58829,7 @@
         <v>0</v>
       </c>
       <c r="AN261" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="AO261" s="1">
         <v>0</v>
@@ -58971,19 +58865,19 @@
         <v>23</v>
       </c>
       <c r="BD261" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="BG261" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="BN261" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU261" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="BV261" s="1" t="s">
         <v>121</v>
@@ -59010,10 +58904,10 @@
         <v>1071</v>
       </c>
       <c r="CF261" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="CH261" s="1" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="CI261" s="1" t="s">
         <v>129</v>
@@ -59027,10 +58921,10 @@
         <v>88</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>1237</v>
@@ -59045,7 +58939,7 @@
         <v>94</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="I262" s="1" t="s">
         <v>1237</v>
@@ -59054,13 +58948,13 @@
         <v>92</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>101</v>
@@ -59111,7 +59005,7 @@
         <v>0</v>
       </c>
       <c r="AN262" s="1" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="AO262" s="1">
         <v>0</v>
@@ -59147,19 +59041,19 @@
         <v>23</v>
       </c>
       <c r="BD262" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="BG262" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="BN262" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU262" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="BV262" s="1" t="s">
         <v>121</v>
@@ -59180,16 +59074,16 @@
         <v>102</v>
       </c>
       <c r="CD262" s="1" t="s">
+        <v>3173</v>
+      </c>
+      <c r="CE262" s="1" t="s">
+        <v>3174</v>
+      </c>
+      <c r="CF262" s="1" t="s">
+        <v>3175</v>
+      </c>
+      <c r="CH262" s="1" t="s">
         <v>3176</v>
-      </c>
-      <c r="CE262" s="1" t="s">
-        <v>3177</v>
-      </c>
-      <c r="CF262" s="1" t="s">
-        <v>3178</v>
-      </c>
-      <c r="CH262" s="1" t="s">
-        <v>3179</v>
       </c>
       <c r="CI262" s="1" t="s">
         <v>129</v>
@@ -59203,10 +59097,10 @@
         <v>88</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>1237</v>
@@ -59221,7 +59115,7 @@
         <v>94</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="I263" s="1" t="s">
         <v>1237</v>
@@ -59230,13 +59124,13 @@
         <v>92</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="O263" s="1" t="s">
         <v>101</v>
@@ -59323,19 +59217,19 @@
         <v>23</v>
       </c>
       <c r="BD263" s="1" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="BG263" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH263" s="1" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="BN263" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU263" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="BV263" s="1" t="s">
         <v>121</v>
@@ -59356,7 +59250,7 @@
         <v>102</v>
       </c>
       <c r="CD263" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="CE263" s="1" t="s">
         <v>584</v>
@@ -59365,7 +59259,7 @@
         <v>488</v>
       </c>
       <c r="CH263" s="1" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="CI263" s="1" t="s">
         <v>129</v>
@@ -59379,10 +59273,10 @@
         <v>88</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>1237</v>
@@ -59397,7 +59291,7 @@
         <v>94</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="I264" s="1" t="s">
         <v>1237</v>
@@ -59406,13 +59300,13 @@
         <v>92</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="O264" s="1" t="s">
         <v>101</v>
@@ -59466,7 +59360,7 @@
         <v>0</v>
       </c>
       <c r="AN264" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="AO264" s="1">
         <v>0</v>
@@ -59502,19 +59396,19 @@
         <v>23</v>
       </c>
       <c r="BD264" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="BG264" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH264" s="1" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="BN264" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU264" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="BV264" s="1" t="s">
         <v>121</v>
@@ -59538,13 +59432,13 @@
         <v>473</v>
       </c>
       <c r="CE264" s="1" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="CF264" s="1" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="CH264" s="1" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="CI264" s="1" t="s">
         <v>129</v>
@@ -59558,10 +59452,10 @@
         <v>88</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>1237</v>
@@ -59576,7 +59470,7 @@
         <v>94</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="I265" s="1" t="s">
         <v>1237</v>
@@ -59585,13 +59479,13 @@
         <v>92</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>3198</v>
+        <v>3195</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="O265" s="1" t="s">
         <v>101</v>
@@ -59678,19 +59572,19 @@
         <v>23</v>
       </c>
       <c r="BD265" s="1" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
       <c r="BG265" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="BN265" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU265" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="BV265" s="1" t="s">
         <v>121</v>
@@ -59711,16 +59605,16 @@
         <v>102</v>
       </c>
       <c r="CD265" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="CE265" s="1" t="s">
         <v>595</v>
       </c>
       <c r="CF265" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="CH265" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="CI265" s="1" t="s">
         <v>129</v>
@@ -59734,10 +59628,10 @@
         <v>88</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>1237</v>
@@ -59752,7 +59646,7 @@
         <v>94</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="I266" s="1" t="s">
         <v>1237</v>
@@ -59761,13 +59655,13 @@
         <v>92</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="O266" s="1" t="s">
         <v>101</v>
@@ -59821,7 +59715,7 @@
         <v>0</v>
       </c>
       <c r="AN266" s="1" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="AO266" s="1">
         <v>0</v>
@@ -59857,19 +59751,19 @@
         <v>23</v>
       </c>
       <c r="BD266" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="BG266" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH266" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="BN266" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU266" s="1" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="BV266" s="1" t="s">
         <v>121</v>
@@ -59890,16 +59784,16 @@
         <v>102</v>
       </c>
       <c r="CD266" s="1" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="CE266" s="1" t="s">
         <v>999</v>
       </c>
       <c r="CF266" s="1" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="CH266" s="1" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="CI266" s="1" t="s">
         <v>129</v>
@@ -59913,10 +59807,10 @@
         <v>88</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>1237</v>
@@ -59931,7 +59825,7 @@
         <v>94</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="I267" s="1" t="s">
         <v>1237</v>
@@ -59940,13 +59834,13 @@
         <v>92</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="O267" s="1" t="s">
         <v>101</v>
@@ -60000,7 +59894,7 @@
         <v>0</v>
       </c>
       <c r="AN267" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="AO267" s="1">
         <v>0</v>
@@ -60036,19 +59930,19 @@
         <v>23</v>
       </c>
       <c r="BD267" s="1" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="BG267" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH267" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="BN267" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU267" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="BV267" s="1" t="s">
         <v>121</v>
@@ -60072,13 +59966,13 @@
         <v>985</v>
       </c>
       <c r="CE267" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="CF267" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="CH267" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="CI267" s="1" t="s">
         <v>129</v>
@@ -60092,10 +59986,10 @@
         <v>88</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>1237</v>
@@ -60110,7 +60004,7 @@
         <v>94</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="I268" s="1" t="s">
         <v>1237</v>
@@ -60119,10 +60013,10 @@
         <v>92</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="O268" s="1" t="s">
         <v>101</v>
@@ -60164,7 +60058,7 @@
         <v>0</v>
       </c>
       <c r="AN268" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="AO268" s="1">
         <v>0</v>
@@ -60200,7 +60094,7 @@
         <v>21</v>
       </c>
       <c r="BD268" s="1" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="BN268" s="1" t="s">
         <v>117</v>
@@ -60224,7 +60118,7 @@
         <v>102</v>
       </c>
       <c r="CD268" s="1" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="CH268" s="1" t="s">
         <v>129</v>
@@ -60241,10 +60135,10 @@
         <v>88</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>1237</v>
@@ -60259,7 +60153,7 @@
         <v>94</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="I269" s="1" t="s">
         <v>1237</v>
@@ -60268,13 +60162,13 @@
         <v>92</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="L269" s="1" t="s">
         <v>2239</v>
       </c>
       <c r="N269" s="1" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="O269" s="1" t="s">
         <v>101</v>
@@ -60325,7 +60219,7 @@
         <v>0</v>
       </c>
       <c r="AN269" s="1" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="AO269" s="1">
         <v>0</v>
@@ -60358,19 +60252,19 @@
         <v>23</v>
       </c>
       <c r="BD269" s="1" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="BG269" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH269" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="BN269" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU269" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="BV269" s="1" t="s">
         <v>121</v>
@@ -60388,16 +60282,16 @@
         <v>102</v>
       </c>
       <c r="CD269" s="1" t="s">
+        <v>3232</v>
+      </c>
+      <c r="CE269" s="1" t="s">
+        <v>3233</v>
+      </c>
+      <c r="CF269" s="1" t="s">
+        <v>3234</v>
+      </c>
+      <c r="CH269" s="1" t="s">
         <v>3235</v>
-      </c>
-      <c r="CE269" s="1" t="s">
-        <v>3236</v>
-      </c>
-      <c r="CF269" s="1" t="s">
-        <v>3237</v>
-      </c>
-      <c r="CH269" s="1" t="s">
-        <v>3238</v>
       </c>
       <c r="CI269" s="1" t="s">
         <v>129</v>
@@ -60411,10 +60305,10 @@
         <v>88</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>1237</v>
@@ -60429,7 +60323,7 @@
         <v>94</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="I270" s="1" t="s">
         <v>1237</v>
@@ -60438,19 +60332,19 @@
         <v>92</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="N270" s="1" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="O270" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P270" s="1" t="s">
-        <v>3241</v>
+        <v>3238</v>
       </c>
       <c r="Q270" s="3">
         <v>16452</v>
@@ -60528,19 +60422,19 @@
         <v>23</v>
       </c>
       <c r="BD270" s="1" t="s">
-        <v>3242</v>
+        <v>3239</v>
       </c>
       <c r="BG270" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH270" s="1" t="s">
-        <v>3243</v>
+        <v>3240</v>
       </c>
       <c r="BN270" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU270" s="1" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="BV270" s="1" t="s">
         <v>121</v>
@@ -60561,16 +60455,16 @@
         <v>2173</v>
       </c>
       <c r="CD270" s="1" t="s">
+        <v>3242</v>
+      </c>
+      <c r="CE270" s="1" t="s">
+        <v>3243</v>
+      </c>
+      <c r="CF270" s="1" t="s">
+        <v>3244</v>
+      </c>
+      <c r="CH270" s="1" t="s">
         <v>3245</v>
-      </c>
-      <c r="CE270" s="1" t="s">
-        <v>3246</v>
-      </c>
-      <c r="CF270" s="1" t="s">
-        <v>3247</v>
-      </c>
-      <c r="CH270" s="1" t="s">
-        <v>3248</v>
       </c>
       <c r="CI270" s="1" t="s">
         <v>129</v>
@@ -60584,10 +60478,10 @@
         <v>88</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>1237</v>
@@ -60602,7 +60496,7 @@
         <v>94</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="I271" s="1" t="s">
         <v>1237</v>
@@ -60611,13 +60505,13 @@
         <v>92</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="N271" s="1" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="O271" s="1" t="s">
         <v>101</v>
@@ -60671,7 +60565,7 @@
         <v>0</v>
       </c>
       <c r="AN271" s="1" t="s">
-        <v>3252</v>
+        <v>3249</v>
       </c>
       <c r="AO271" s="1">
         <v>0</v>
@@ -60707,19 +60601,19 @@
         <v>23</v>
       </c>
       <c r="BD271" s="1" t="s">
-        <v>3253</v>
+        <v>3250</v>
       </c>
       <c r="BG271" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH271" s="1" t="s">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="BN271" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU271" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="BV271" s="1" t="s">
         <v>121</v>
@@ -60740,16 +60634,16 @@
         <v>102</v>
       </c>
       <c r="CD271" s="1" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="CE271" s="1" t="s">
-        <v>3256</v>
+        <v>3253</v>
       </c>
       <c r="CF271" s="1" t="s">
-        <v>3257</v>
+        <v>3254</v>
       </c>
       <c r="CH271" s="1" t="s">
-        <v>3258</v>
+        <v>3255</v>
       </c>
       <c r="CI271" s="1" t="s">
         <v>129</v>
@@ -60763,10 +60657,10 @@
         <v>88</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>1237</v>
@@ -60781,7 +60675,7 @@
         <v>94</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="I272" s="1" t="s">
         <v>1237</v>
@@ -60790,10 +60684,10 @@
         <v>92</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>3259</v>
+        <v>3256</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>3260</v>
+        <v>3257</v>
       </c>
       <c r="O272" s="1" t="s">
         <v>101</v>
@@ -60835,7 +60729,7 @@
         <v>0</v>
       </c>
       <c r="AN272" s="1" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
       <c r="AO272" s="1">
         <v>0</v>
@@ -60871,7 +60765,7 @@
         <v>22</v>
       </c>
       <c r="BD272" s="1" t="s">
-        <v>3261</v>
+        <v>3258</v>
       </c>
       <c r="BN272" s="1" t="s">
         <v>117</v>
@@ -60895,7 +60789,7 @@
         <v>102</v>
       </c>
       <c r="CD272" s="1" t="s">
-        <v>3259</v>
+        <v>3256</v>
       </c>
       <c r="CH272" s="1" t="s">
         <v>129</v>
@@ -60912,10 +60806,10 @@
         <v>88</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>1237</v>
@@ -60930,7 +60824,7 @@
         <v>94</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="I273" s="1" t="s">
         <v>1237</v>
@@ -60939,10 +60833,10 @@
         <v>92</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>3263</v>
+        <v>3260</v>
       </c>
       <c r="O273" s="1" t="s">
         <v>101</v>
@@ -60984,7 +60878,7 @@
         <v>0</v>
       </c>
       <c r="AN273" s="1" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
       <c r="AO273" s="1">
         <v>0</v>
@@ -61020,7 +60914,7 @@
         <v>22</v>
       </c>
       <c r="BD273" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="BN273" s="1" t="s">
         <v>117</v>
@@ -61044,7 +60938,7 @@
         <v>102</v>
       </c>
       <c r="CD273" s="1" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="CH273" s="1" t="s">
         <v>129</v>
@@ -61061,10 +60955,10 @@
         <v>88</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>1237</v>
@@ -61079,7 +60973,7 @@
         <v>94</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="I274" s="1" t="s">
         <v>1237</v>
@@ -61088,13 +60982,13 @@
         <v>92</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>3265</v>
+        <v>3262</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>3266</v>
+        <v>3263</v>
       </c>
       <c r="N274" s="1" t="s">
-        <v>3267</v>
+        <v>3264</v>
       </c>
       <c r="O274" s="1" t="s">
         <v>101</v>
@@ -61187,7 +61081,7 @@
         <v>23</v>
       </c>
       <c r="BD274" s="1" t="s">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="BG274" s="1" t="s">
         <v>114</v>
@@ -61214,10 +61108,10 @@
         <v>102</v>
       </c>
       <c r="CD274" s="1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="CE274" s="1" t="s">
-        <v>3269</v>
+        <v>3266</v>
       </c>
       <c r="CF274" s="1" t="s">
         <v>216</v>
@@ -61237,10 +61131,10 @@
         <v>88</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>1237</v>
@@ -61255,7 +61149,7 @@
         <v>94</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="I275" s="1" t="s">
         <v>1237</v>
@@ -61264,10 +61158,10 @@
         <v>92</v>
       </c>
       <c r="K275" s="1" t="s">
-        <v>3270</v>
+        <v>3267</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>3271</v>
+        <v>3268</v>
       </c>
       <c r="O275" s="1" t="s">
         <v>101</v>
@@ -61309,7 +61203,7 @@
         <v>0</v>
       </c>
       <c r="AN275" s="1" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
       <c r="AO275" s="1">
         <v>0</v>
@@ -61345,7 +61239,7 @@
         <v>22</v>
       </c>
       <c r="BD275" s="1" t="s">
-        <v>3272</v>
+        <v>3269</v>
       </c>
       <c r="BN275" s="1" t="s">
         <v>117</v>
@@ -61354,7 +61248,7 @@
         <v>121</v>
       </c>
       <c r="BX275" s="1" t="s">
-        <v>3273</v>
+        <v>3270</v>
       </c>
       <c r="BY275" s="1">
         <v>0</v>
@@ -61372,7 +61266,7 @@
         <v>102</v>
       </c>
       <c r="CD275" s="1" t="s">
-        <v>3270</v>
+        <v>3267</v>
       </c>
       <c r="CH275" s="1" t="s">
         <v>129</v>
@@ -61389,10 +61283,10 @@
         <v>88</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>1237</v>
@@ -61407,7 +61301,7 @@
         <v>94</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="I276" s="1" t="s">
         <v>1237</v>
@@ -61416,13 +61310,13 @@
         <v>92</v>
       </c>
       <c r="K276" s="1" t="s">
-        <v>3274</v>
+        <v>3271</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>3275</v>
+        <v>3272</v>
       </c>
       <c r="N276" s="1" t="s">
-        <v>3276</v>
+        <v>3273</v>
       </c>
       <c r="O276" s="1" t="s">
         <v>101</v>
@@ -61473,7 +61367,7 @@
         <v>0</v>
       </c>
       <c r="AN276" s="1" t="s">
-        <v>3277</v>
+        <v>3274</v>
       </c>
       <c r="AO276" s="1">
         <v>0</v>
@@ -61509,19 +61403,19 @@
         <v>23</v>
       </c>
       <c r="BD276" s="1" t="s">
-        <v>3278</v>
+        <v>3275</v>
       </c>
       <c r="BG276" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH276" s="1" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
       <c r="BN276" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU276" s="1" t="s">
-        <v>3280</v>
+        <v>3277</v>
       </c>
       <c r="BV276" s="1" t="s">
         <v>121</v>
@@ -61542,16 +61436,16 @@
         <v>102</v>
       </c>
       <c r="CD276" s="1" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="CE276" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="CF276" s="1" t="s">
-        <v>3282</v>
+        <v>3279</v>
       </c>
       <c r="CH276" s="1" t="s">
-        <v>3283</v>
+        <v>3280</v>
       </c>
       <c r="CI276" s="1" t="s">
         <v>129</v>
@@ -61565,10 +61459,10 @@
         <v>88</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>1237</v>
@@ -61583,7 +61477,7 @@
         <v>94</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="I277" s="1" t="s">
         <v>1237</v>
@@ -61592,13 +61486,13 @@
         <v>92</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>3284</v>
+        <v>3281</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>3285</v>
+        <v>3282</v>
       </c>
       <c r="N277" s="1" t="s">
-        <v>3286</v>
+        <v>3283</v>
       </c>
       <c r="O277" s="1" t="s">
         <v>101</v>
@@ -61628,7 +61522,7 @@
         <v>107</v>
       </c>
       <c r="AG277" s="1" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="AH277" s="1" t="s">
         <v>373</v>
@@ -61643,7 +61537,7 @@
         <v>0</v>
       </c>
       <c r="AN277" s="1" t="s">
-        <v>3287</v>
+        <v>3284</v>
       </c>
       <c r="AO277" s="1">
         <v>0</v>
@@ -61673,19 +61567,19 @@
         <v>23</v>
       </c>
       <c r="BD277" s="1" t="s">
-        <v>3288</v>
+        <v>3285</v>
       </c>
       <c r="BG277" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH277" s="1" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="BN277" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU277" s="1" t="s">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="BV277" s="1" t="s">
         <v>121</v>
@@ -61703,16 +61597,16 @@
         <v>102</v>
       </c>
       <c r="CD277" s="1" t="s">
-        <v>3291</v>
+        <v>3288</v>
       </c>
       <c r="CE277" s="1" t="s">
         <v>311</v>
       </c>
       <c r="CF277" s="1" t="s">
-        <v>3292</v>
+        <v>3289</v>
       </c>
       <c r="CH277" s="1" t="s">
-        <v>3293</v>
+        <v>3290</v>
       </c>
       <c r="CI277" s="1" t="s">
         <v>129</v>
@@ -61726,10 +61620,10 @@
         <v>88</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>1237</v>
@@ -61744,7 +61638,7 @@
         <v>94</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="I278" s="1" t="s">
         <v>1237</v>
@@ -61753,13 +61647,13 @@
         <v>92</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>3294</v>
+        <v>3291</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>3295</v>
+        <v>3292</v>
       </c>
       <c r="N278" s="1" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="O278" s="1" t="s">
         <v>101</v>
@@ -61843,19 +61737,19 @@
         <v>23</v>
       </c>
       <c r="BD278" s="1" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="BG278" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH278" s="1" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="BN278" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU278" s="1" t="s">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="BV278" s="1" t="s">
         <v>121</v>
@@ -61873,16 +61767,16 @@
         <v>102</v>
       </c>
       <c r="CD278" s="1" t="s">
+        <v>3297</v>
+      </c>
+      <c r="CE278" s="1" t="s">
+        <v>3298</v>
+      </c>
+      <c r="CF278" s="1" t="s">
+        <v>3299</v>
+      </c>
+      <c r="CH278" s="1" t="s">
         <v>3300</v>
-      </c>
-      <c r="CE278" s="1" t="s">
-        <v>3301</v>
-      </c>
-      <c r="CF278" s="1" t="s">
-        <v>3302</v>
-      </c>
-      <c r="CH278" s="1" t="s">
-        <v>3303</v>
       </c>
       <c r="CI278" s="1" t="s">
         <v>129</v>
@@ -61896,10 +61790,10 @@
         <v>88</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>1237</v>
@@ -61914,7 +61808,7 @@
         <v>94</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="I279" s="1" t="s">
         <v>1237</v>
@@ -61923,13 +61817,13 @@
         <v>92</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>3304</v>
+        <v>3301</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>3305</v>
+        <v>3302</v>
       </c>
       <c r="N279" s="1" t="s">
-        <v>3306</v>
+        <v>3303</v>
       </c>
       <c r="O279" s="1" t="s">
         <v>101</v>
@@ -62016,19 +61910,19 @@
         <v>23</v>
       </c>
       <c r="BD279" s="1" t="s">
-        <v>3307</v>
+        <v>3304</v>
       </c>
       <c r="BG279" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH279" s="1" t="s">
-        <v>3308</v>
+        <v>3305</v>
       </c>
       <c r="BN279" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU279" s="1" t="s">
-        <v>3309</v>
+        <v>3306</v>
       </c>
       <c r="BV279" s="1" t="s">
         <v>121</v>
@@ -62046,16 +61940,16 @@
         <v>102</v>
       </c>
       <c r="CD279" s="1" t="s">
+        <v>3307</v>
+      </c>
+      <c r="CE279" s="1" t="s">
+        <v>3308</v>
+      </c>
+      <c r="CF279" s="1" t="s">
+        <v>3309</v>
+      </c>
+      <c r="CH279" s="1" t="s">
         <v>3310</v>
-      </c>
-      <c r="CE279" s="1" t="s">
-        <v>3311</v>
-      </c>
-      <c r="CF279" s="1" t="s">
-        <v>3312</v>
-      </c>
-      <c r="CH279" s="1" t="s">
-        <v>3313</v>
       </c>
       <c r="CI279" s="1" t="s">
         <v>129</v>
@@ -62069,10 +61963,10 @@
         <v>88</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>1237</v>
@@ -62087,7 +61981,7 @@
         <v>94</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="I280" s="1" t="s">
         <v>1237</v>
@@ -62096,13 +61990,13 @@
         <v>92</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>3314</v>
+        <v>3311</v>
       </c>
       <c r="L280" s="1" t="s">
-        <v>3315</v>
+        <v>3312</v>
       </c>
       <c r="N280" s="1" t="s">
-        <v>3316</v>
+        <v>3313</v>
       </c>
       <c r="O280" s="1" t="s">
         <v>101</v>
@@ -62111,7 +62005,7 @@
         <v>102</v>
       </c>
       <c r="Q280" t="s">
-        <v>3317</v>
+        <v>3314</v>
       </c>
       <c r="R280" s="1" t="s">
         <v>134</v>
@@ -62153,7 +62047,7 @@
         <v>0</v>
       </c>
       <c r="AN280" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="AO280" s="1">
         <v>0</v>
@@ -62186,19 +62080,19 @@
         <v>23</v>
       </c>
       <c r="BD280" s="1" t="s">
-        <v>3318</v>
+        <v>3315</v>
       </c>
       <c r="BG280" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH280" s="1" t="s">
-        <v>3319</v>
+        <v>3316</v>
       </c>
       <c r="BN280" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU280" s="1" t="s">
-        <v>3320</v>
+        <v>3317</v>
       </c>
       <c r="BV280" s="1" t="s">
         <v>121</v>
@@ -62216,16 +62110,16 @@
         <v>102</v>
       </c>
       <c r="CD280" s="1" t="s">
+        <v>3318</v>
+      </c>
+      <c r="CE280" s="1" t="s">
+        <v>3319</v>
+      </c>
+      <c r="CF280" s="1" t="s">
+        <v>3320</v>
+      </c>
+      <c r="CH280" s="1" t="s">
         <v>3321</v>
-      </c>
-      <c r="CE280" s="1" t="s">
-        <v>3322</v>
-      </c>
-      <c r="CF280" s="1" t="s">
-        <v>3323</v>
-      </c>
-      <c r="CH280" s="1" t="s">
-        <v>3324</v>
       </c>
       <c r="CI280" s="1" t="s">
         <v>129</v>
@@ -62239,10 +62133,10 @@
         <v>88</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>1237</v>
@@ -62257,7 +62151,7 @@
         <v>94</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="I281" s="1" t="s">
         <v>1237</v>
@@ -62266,13 +62160,13 @@
         <v>92</v>
       </c>
       <c r="K281" s="1" t="s">
-        <v>3325</v>
+        <v>3322</v>
       </c>
       <c r="L281" s="1" t="s">
-        <v>3326</v>
+        <v>3323</v>
       </c>
       <c r="N281" s="1" t="s">
-        <v>3327</v>
+        <v>3324</v>
       </c>
       <c r="O281" s="1" t="s">
         <v>101</v>
@@ -62326,7 +62220,7 @@
         <v>0</v>
       </c>
       <c r="AN281" s="1" t="s">
-        <v>3328</v>
+        <v>3325</v>
       </c>
       <c r="AO281" s="1">
         <v>0</v>
@@ -62362,19 +62256,19 @@
         <v>23</v>
       </c>
       <c r="BD281" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="BG281" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH281" s="1" t="s">
-        <v>3330</v>
+        <v>3327</v>
       </c>
       <c r="BN281" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU281" s="1" t="s">
-        <v>3331</v>
+        <v>3328</v>
       </c>
       <c r="BV281" s="1" t="s">
         <v>121</v>
@@ -62401,10 +62295,10 @@
         <v>1480</v>
       </c>
       <c r="CF281" s="1" t="s">
-        <v>3332</v>
+        <v>3329</v>
       </c>
       <c r="CH281" s="1" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="CI281" s="1" t="s">
         <v>129</v>
@@ -62418,10 +62312,10 @@
         <v>88</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>1237</v>
@@ -62436,7 +62330,7 @@
         <v>94</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="I282" s="1" t="s">
         <v>1237</v>
@@ -62445,13 +62339,13 @@
         <v>92</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>3334</v>
+        <v>3331</v>
       </c>
       <c r="L282" s="1" t="s">
-        <v>3260</v>
+        <v>3257</v>
       </c>
       <c r="N282" s="1" t="s">
-        <v>3335</v>
+        <v>3332</v>
       </c>
       <c r="O282" s="1" t="s">
         <v>101</v>
@@ -62505,7 +62399,7 @@
         <v>0</v>
       </c>
       <c r="AN282" s="1" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
       <c r="AO282" s="1">
         <v>0</v>
@@ -62541,19 +62435,19 @@
         <v>23</v>
       </c>
       <c r="BD282" s="1" t="s">
-        <v>3336</v>
+        <v>3333</v>
       </c>
       <c r="BG282" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH282" s="1" t="s">
-        <v>3337</v>
+        <v>3334</v>
       </c>
       <c r="BN282" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU282" s="1" t="s">
-        <v>3338</v>
+        <v>3335</v>
       </c>
       <c r="BV282" s="1" t="s">
         <v>121</v>
@@ -62574,16 +62468,16 @@
         <v>102</v>
       </c>
       <c r="CD282" s="1" t="s">
+        <v>3336</v>
+      </c>
+      <c r="CE282" s="1" t="s">
+        <v>3337</v>
+      </c>
+      <c r="CF282" s="1" t="s">
+        <v>3338</v>
+      </c>
+      <c r="CH282" s="1" t="s">
         <v>3339</v>
-      </c>
-      <c r="CE282" s="1" t="s">
-        <v>3340</v>
-      </c>
-      <c r="CF282" s="1" t="s">
-        <v>3341</v>
-      </c>
-      <c r="CH282" s="1" t="s">
-        <v>3342</v>
       </c>
       <c r="CI282" s="1" t="s">
         <v>129</v>
@@ -62597,10 +62491,10 @@
         <v>88</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>1237</v>
@@ -62615,7 +62509,7 @@
         <v>94</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="I283" s="1" t="s">
         <v>1237</v>
@@ -62624,13 +62518,13 @@
         <v>92</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>3343</v>
+        <v>3340</v>
       </c>
       <c r="L283" s="1" t="s">
-        <v>3263</v>
+        <v>3260</v>
       </c>
       <c r="N283" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="O283" s="1" t="s">
         <v>101</v>
@@ -62684,7 +62578,7 @@
         <v>0</v>
       </c>
       <c r="AN283" s="1" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
       <c r="AO283" s="1">
         <v>0</v>
@@ -62720,19 +62614,19 @@
         <v>23</v>
       </c>
       <c r="BD283" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="BG283" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH283" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="BN283" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU283" s="1" t="s">
-        <v>3347</v>
+        <v>3344</v>
       </c>
       <c r="BV283" s="1" t="s">
         <v>121</v>
@@ -62753,16 +62647,16 @@
         <v>102</v>
       </c>
       <c r="CD283" s="1" t="s">
+        <v>3345</v>
+      </c>
+      <c r="CE283" s="1" t="s">
+        <v>3346</v>
+      </c>
+      <c r="CF283" s="1" t="s">
+        <v>3347</v>
+      </c>
+      <c r="CH283" s="1" t="s">
         <v>3348</v>
-      </c>
-      <c r="CE283" s="1" t="s">
-        <v>3349</v>
-      </c>
-      <c r="CF283" s="1" t="s">
-        <v>3350</v>
-      </c>
-      <c r="CH283" s="1" t="s">
-        <v>3351</v>
       </c>
       <c r="CI283" s="1" t="s">
         <v>129</v>
@@ -62776,10 +62670,10 @@
         <v>88</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>1237</v>
@@ -62794,7 +62688,7 @@
         <v>94</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="I284" s="1" t="s">
         <v>1237</v>
@@ -62803,13 +62697,13 @@
         <v>92</v>
       </c>
       <c r="K284" s="1" t="s">
-        <v>3352</v>
+        <v>3349</v>
       </c>
       <c r="L284" s="1" t="s">
-        <v>3271</v>
+        <v>3268</v>
       </c>
       <c r="N284" s="1" t="s">
-        <v>3353</v>
+        <v>3350</v>
       </c>
       <c r="O284" s="1" t="s">
         <v>101</v>
@@ -62863,7 +62757,7 @@
         <v>0</v>
       </c>
       <c r="AN284" s="1" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
       <c r="AO284" s="1">
         <v>0</v>
@@ -62899,19 +62793,19 @@
         <v>23</v>
       </c>
       <c r="BD284" s="1" t="s">
-        <v>3354</v>
+        <v>3351</v>
       </c>
       <c r="BG284" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH284" s="1" t="s">
-        <v>3355</v>
+        <v>3352</v>
       </c>
       <c r="BN284" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU284" s="1" t="s">
-        <v>3356</v>
+        <v>3353</v>
       </c>
       <c r="BV284" s="1" t="s">
         <v>121</v>
@@ -62932,16 +62826,16 @@
         <v>102</v>
       </c>
       <c r="CD284" s="1" t="s">
-        <v>3357</v>
+        <v>3354</v>
       </c>
       <c r="CE284" s="1" t="s">
         <v>1246</v>
       </c>
       <c r="CF284" s="1" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="CH284" s="1" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="CI284" s="1" t="s">
         <v>129</v>
@@ -62982,16 +62876,16 @@
         <v>97</v>
       </c>
       <c r="K285" s="1" t="s">
-        <v>3360</v>
+        <v>3357</v>
       </c>
       <c r="L285" s="1" t="s">
-        <v>3361</v>
+        <v>3358</v>
       </c>
       <c r="M285" s="1" t="s">
         <v>103</v>
       </c>
       <c r="N285" s="1" t="s">
-        <v>3362</v>
+        <v>3359</v>
       </c>
       <c r="O285" s="1" t="s">
         <v>101</v>
@@ -63078,16 +62972,16 @@
         <v>23</v>
       </c>
       <c r="BD285" s="1" t="s">
-        <v>3363</v>
+        <v>3360</v>
       </c>
       <c r="BG285" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH285" s="1" t="s">
-        <v>3364</v>
+        <v>3361</v>
       </c>
       <c r="BI285" s="1" t="s">
-        <v>3365</v>
+        <v>3362</v>
       </c>
       <c r="BN285" s="1" t="s">
         <v>117</v>
@@ -63096,7 +62990,7 @@
         <v>106</v>
       </c>
       <c r="BU285" s="1" t="s">
-        <v>3366</v>
+        <v>3363</v>
       </c>
       <c r="BV285" s="1" t="s">
         <v>121</v>
@@ -63117,19 +63011,19 @@
         <v>102</v>
       </c>
       <c r="CD285" s="1" t="s">
+        <v>3364</v>
+      </c>
+      <c r="CE285" s="1" t="s">
+        <v>3365</v>
+      </c>
+      <c r="CF285" s="1" t="s">
+        <v>3366</v>
+      </c>
+      <c r="CH285" s="1" t="s">
         <v>3367</v>
       </c>
-      <c r="CE285" s="1" t="s">
+      <c r="CI285" s="1" t="s">
         <v>3368</v>
-      </c>
-      <c r="CF285" s="1" t="s">
-        <v>3369</v>
-      </c>
-      <c r="CH285" s="1" t="s">
-        <v>3370</v>
-      </c>
-      <c r="CI285" s="1" t="s">
-        <v>3371</v>
       </c>
       <c r="CJ285" s="1" t="s">
         <v>129</v>
@@ -63263,13 +63157,13 @@
         <v>23</v>
       </c>
       <c r="BD286" s="1" t="s">
-        <v>3372</v>
+        <v>3369</v>
       </c>
       <c r="BG286" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH286" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="BN286" s="1" t="s">
         <v>117</v>
@@ -63314,7 +63208,7 @@
         <v>126</v>
       </c>
       <c r="CH286" s="1" t="s">
-        <v>3374</v>
+        <v>3371</v>
       </c>
       <c r="CI286" s="1" t="s">
         <v>129</v>
@@ -63454,13 +63348,13 @@
         <v>23</v>
       </c>
       <c r="BD287" s="1" t="s">
-        <v>3375</v>
+        <v>3372</v>
       </c>
       <c r="BG287" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH287" s="1" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="BN287" s="1" t="s">
         <v>117</v>
@@ -63508,7 +63402,7 @@
         <v>165</v>
       </c>
       <c r="CH287" s="1" t="s">
-        <v>3377</v>
+        <v>3374</v>
       </c>
       <c r="CI287" s="1" t="s">
         <v>129</v>
@@ -63648,13 +63542,13 @@
         <v>23</v>
       </c>
       <c r="BD288" s="1" t="s">
-        <v>3378</v>
+        <v>3375</v>
       </c>
       <c r="BG288" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH288" s="1" t="s">
-        <v>3379</v>
+        <v>3376</v>
       </c>
       <c r="BN288" s="1" t="s">
         <v>117</v>
@@ -63705,7 +63599,7 @@
         <v>300</v>
       </c>
       <c r="CH288" s="1" t="s">
-        <v>3380</v>
+        <v>3377</v>
       </c>
       <c r="CI288" s="1" t="s">
         <v>129</v>
@@ -63848,13 +63742,13 @@
         <v>23</v>
       </c>
       <c r="BD289" s="1" t="s">
-        <v>3381</v>
+        <v>3378</v>
       </c>
       <c r="BG289" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH289" s="1" t="s">
-        <v>3382</v>
+        <v>3379</v>
       </c>
       <c r="BN289" s="1" t="s">
         <v>117</v>
@@ -63902,7 +63796,7 @@
         <v>395</v>
       </c>
       <c r="CH289" s="1" t="s">
-        <v>3383</v>
+        <v>3380</v>
       </c>
       <c r="CI289" s="1" t="s">
         <v>129</v>
@@ -64048,13 +63942,13 @@
         <v>23</v>
       </c>
       <c r="BD290" s="1" t="s">
-        <v>3384</v>
+        <v>3381</v>
       </c>
       <c r="BG290" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH290" s="1" t="s">
-        <v>3385</v>
+        <v>3382</v>
       </c>
       <c r="BN290" s="1" t="s">
         <v>117</v>
@@ -64090,7 +63984,7 @@
         <v>474</v>
       </c>
       <c r="CH290" s="1" t="s">
-        <v>3386</v>
+        <v>3383</v>
       </c>
       <c r="CI290" s="1" t="s">
         <v>129</v>
@@ -64236,13 +64130,13 @@
         <v>23</v>
       </c>
       <c r="BD291" s="1" t="s">
-        <v>3387</v>
+        <v>3384</v>
       </c>
       <c r="BG291" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH291" s="1" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="BN291" s="1" t="s">
         <v>117</v>
@@ -64287,7 +64181,7 @@
         <v>530</v>
       </c>
       <c r="CH291" s="1" t="s">
-        <v>3377</v>
+        <v>3374</v>
       </c>
       <c r="CI291" s="1" t="s">
         <v>129</v>
@@ -64424,13 +64318,13 @@
         <v>23</v>
       </c>
       <c r="BD292" s="1" t="s">
-        <v>3388</v>
+        <v>3385</v>
       </c>
       <c r="BG292" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH292" s="1" t="s">
-        <v>3385</v>
+        <v>3382</v>
       </c>
       <c r="BN292" s="1" t="s">
         <v>117</v>
@@ -64472,7 +64366,7 @@
         <v>705</v>
       </c>
       <c r="CH292" s="1" t="s">
-        <v>3386</v>
+        <v>3383</v>
       </c>
       <c r="CI292" s="1" t="s">
         <v>129</v>
@@ -64612,13 +64506,13 @@
         <v>23</v>
       </c>
       <c r="BD293" s="1" t="s">
-        <v>3389</v>
+        <v>3386</v>
       </c>
       <c r="BG293" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH293" s="1" t="s">
-        <v>3390</v>
+        <v>3387</v>
       </c>
       <c r="BN293" s="1" t="s">
         <v>117</v>
@@ -64657,7 +64551,7 @@
         <v>717</v>
       </c>
       <c r="CH293" s="1" t="s">
-        <v>3391</v>
+        <v>3388</v>
       </c>
       <c r="CI293" s="1" t="s">
         <v>129</v>
@@ -64797,13 +64691,13 @@
         <v>23</v>
       </c>
       <c r="BD294" s="1" t="s">
-        <v>3392</v>
+        <v>3389</v>
       </c>
       <c r="BG294" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH294" s="1" t="s">
-        <v>3393</v>
+        <v>3390</v>
       </c>
       <c r="BN294" s="1" t="s">
         <v>117</v>
@@ -64842,7 +64736,7 @@
         <v>777</v>
       </c>
       <c r="CH294" s="1" t="s">
-        <v>3394</v>
+        <v>3391</v>
       </c>
       <c r="CI294" s="1" t="s">
         <v>129</v>
@@ -64985,13 +64879,13 @@
         <v>23</v>
       </c>
       <c r="BD295" s="1" t="s">
-        <v>3395</v>
+        <v>3392</v>
       </c>
       <c r="BG295" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH295" s="1" t="s">
-        <v>3396</v>
+        <v>3393</v>
       </c>
       <c r="BN295" s="1" t="s">
         <v>117</v>
@@ -65030,7 +64924,7 @@
         <v>807</v>
       </c>
       <c r="CH295" s="1" t="s">
-        <v>3397</v>
+        <v>3394</v>
       </c>
       <c r="CI295" s="1" t="s">
         <v>129</v>
@@ -65170,13 +65064,13 @@
         <v>23</v>
       </c>
       <c r="BD296" s="1" t="s">
-        <v>3398</v>
+        <v>3395</v>
       </c>
       <c r="BG296" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH296" s="1" t="s">
-        <v>3399</v>
+        <v>3396</v>
       </c>
       <c r="BN296" s="1" t="s">
         <v>117</v>
@@ -65218,7 +65112,7 @@
         <v>830</v>
       </c>
       <c r="CH296" s="1" t="s">
-        <v>3400</v>
+        <v>3397</v>
       </c>
       <c r="CI296" s="1" t="s">
         <v>129</v>
@@ -65361,13 +65255,13 @@
         <v>23</v>
       </c>
       <c r="BD297" s="1" t="s">
-        <v>3401</v>
+        <v>3398</v>
       </c>
       <c r="BG297" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH297" s="1" t="s">
-        <v>3402</v>
+        <v>3399</v>
       </c>
       <c r="BN297" s="1" t="s">
         <v>117</v>
@@ -65403,7 +65297,7 @@
         <v>926</v>
       </c>
       <c r="CH297" s="1" t="s">
-        <v>3403</v>
+        <v>3400</v>
       </c>
       <c r="CI297" s="1" t="s">
         <v>129</v>
@@ -65549,13 +65443,13 @@
         <v>23</v>
       </c>
       <c r="BD298" s="1" t="s">
-        <v>3404</v>
+        <v>3401</v>
       </c>
       <c r="BG298" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH298" s="1" t="s">
-        <v>3405</v>
+        <v>3402</v>
       </c>
       <c r="BN298" s="1" t="s">
         <v>117</v>
@@ -65591,7 +65485,7 @@
         <v>961</v>
       </c>
       <c r="CH298" s="1" t="s">
-        <v>3406</v>
+        <v>3403</v>
       </c>
       <c r="CI298" s="1" t="s">
         <v>129</v>
@@ -65731,13 +65625,13 @@
         <v>23</v>
       </c>
       <c r="BD299" s="1" t="s">
-        <v>3407</v>
+        <v>3404</v>
       </c>
       <c r="BG299" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH299" s="1" t="s">
-        <v>3408</v>
+        <v>3405</v>
       </c>
       <c r="BN299" s="1" t="s">
         <v>117</v>
@@ -65776,7 +65670,7 @@
         <v>986</v>
       </c>
       <c r="CH299" s="1" t="s">
-        <v>3409</v>
+        <v>3406</v>
       </c>
       <c r="CI299" s="1" t="s">
         <v>129</v>
@@ -65919,13 +65813,13 @@
         <v>23</v>
       </c>
       <c r="BD300" s="1" t="s">
-        <v>3410</v>
+        <v>3407</v>
       </c>
       <c r="BG300" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH300" s="1" t="s">
-        <v>3402</v>
+        <v>3399</v>
       </c>
       <c r="BN300" s="1" t="s">
         <v>117</v>
@@ -65970,7 +65864,7 @@
         <v>285</v>
       </c>
       <c r="CH300" s="1" t="s">
-        <v>3403</v>
+        <v>3400</v>
       </c>
       <c r="CI300" s="1" t="s">
         <v>129</v>
@@ -66113,13 +66007,13 @@
         <v>23</v>
       </c>
       <c r="BD301" s="1" t="s">
-        <v>3411</v>
+        <v>3408</v>
       </c>
       <c r="BG301" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH301" s="1" t="s">
-        <v>3412</v>
+        <v>3409</v>
       </c>
       <c r="BN301" s="1" t="s">
         <v>117</v>
@@ -66158,7 +66052,7 @@
         <v>1108</v>
       </c>
       <c r="CH301" s="1" t="s">
-        <v>3413</v>
+        <v>3410</v>
       </c>
       <c r="CI301" s="1" t="s">
         <v>129</v>
@@ -66295,13 +66189,13 @@
         <v>23</v>
       </c>
       <c r="BD302" s="1" t="s">
-        <v>3414</v>
+        <v>3411</v>
       </c>
       <c r="BG302" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH302" s="1" t="s">
-        <v>3415</v>
+        <v>3412</v>
       </c>
       <c r="BN302" s="1" t="s">
         <v>117</v>
@@ -66349,7 +66243,7 @@
         <v>1122</v>
       </c>
       <c r="CH302" s="1" t="s">
-        <v>3416</v>
+        <v>3413</v>
       </c>
       <c r="CI302" s="1" t="s">
         <v>129</v>
@@ -66486,13 +66380,13 @@
         <v>23</v>
       </c>
       <c r="BD303" s="1" t="s">
-        <v>3417</v>
+        <v>3414</v>
       </c>
       <c r="BG303" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH303" s="1" t="s">
-        <v>3418</v>
+        <v>3415</v>
       </c>
       <c r="BN303" s="1" t="s">
         <v>117</v>
@@ -66537,7 +66431,7 @@
         <v>1146</v>
       </c>
       <c r="CH303" s="1" t="s">
-        <v>3419</v>
+        <v>3416</v>
       </c>
       <c r="CI303" s="1" t="s">
         <v>129</v>
@@ -66677,13 +66571,13 @@
         <v>23</v>
       </c>
       <c r="BD304" s="1" t="s">
-        <v>3420</v>
+        <v>3417</v>
       </c>
       <c r="BG304" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH304" s="1" t="s">
-        <v>3421</v>
+        <v>3418</v>
       </c>
       <c r="BN304" s="1" t="s">
         <v>117</v>
@@ -66731,7 +66625,7 @@
         <v>1169</v>
       </c>
       <c r="CH304" s="1" t="s">
-        <v>3422</v>
+        <v>3419</v>
       </c>
       <c r="CI304" s="1" t="s">
         <v>129</v>
@@ -66874,13 +66768,13 @@
         <v>23</v>
       </c>
       <c r="BD305" s="1" t="s">
-        <v>3423</v>
+        <v>3420</v>
       </c>
       <c r="BG305" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH305" s="1" t="s">
-        <v>3424</v>
+        <v>3421</v>
       </c>
       <c r="BN305" s="1" t="s">
         <v>117</v>
@@ -66922,7 +66816,7 @@
         <v>1741</v>
       </c>
       <c r="CH305" s="1" t="s">
-        <v>3425</v>
+        <v>3422</v>
       </c>
       <c r="CI305" s="1" t="s">
         <v>129</v>
@@ -66963,16 +66857,16 @@
         <v>97</v>
       </c>
       <c r="K306" s="1" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="L306" s="1" t="s">
-        <v>2770</v>
+        <v>2768</v>
       </c>
       <c r="M306" s="1" t="s">
         <v>103</v>
       </c>
       <c r="N306" s="1" t="s">
-        <v>2771</v>
+        <v>2769</v>
       </c>
       <c r="O306" s="1" t="s">
         <v>101</v>
@@ -67004,12 +66898,7 @@
       <c r="AB306" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC306" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD306" s="1" t="s">
-        <v>2692</v>
-      </c>
+      <c r="AC306" s="3"/>
       <c r="AF306" s="1" t="s">
         <v>107</v>
       </c>
@@ -67068,13 +66957,13 @@
         <v>23</v>
       </c>
       <c r="BD306" s="1" t="s">
-        <v>3426</v>
+        <v>3423</v>
       </c>
       <c r="BG306" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH306" s="1" t="s">
-        <v>3427</v>
+        <v>3424</v>
       </c>
       <c r="BN306" s="1" t="s">
         <v>117</v>
@@ -67086,13 +66975,13 @@
         <v>229</v>
       </c>
       <c r="BS306" s="1" t="s">
-        <v>2775</v>
+        <v>2773</v>
       </c>
       <c r="BT306" s="3">
         <v>37069</v>
       </c>
       <c r="BU306" s="1" t="s">
-        <v>2776</v>
+        <v>2774</v>
       </c>
       <c r="BV306" s="1" t="s">
         <v>121</v>
@@ -67113,13 +67002,13 @@
         <v>753</v>
       </c>
       <c r="CE306" s="1" t="s">
-        <v>2777</v>
+        <v>2775</v>
       </c>
       <c r="CF306" s="1" t="s">
-        <v>2778</v>
+        <v>2776</v>
       </c>
       <c r="CH306" s="1" t="s">
-        <v>3428</v>
+        <v>3425</v>
       </c>
       <c r="CI306" s="1" t="s">
         <v>129</v>
@@ -67129,6 +67018,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CJ306" xr:uid="{058F551C-185C-410C-A972-43A8847088E2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>